--- a/web/static/data/gotube/data_uji_test.xlsx
+++ b/web/static/data/gotube/data_uji_test.xlsx
@@ -25,1093 +25,1093 @@
     <t>rating</t>
   </si>
   <si>
-    <t>Inna Fatikhatus Sholikah</t>
-  </si>
-  <si>
-    <t>syella farizca</t>
-  </si>
-  <si>
-    <t>saiful arif</t>
-  </si>
-  <si>
-    <t>Sadudin Abdulfatah</t>
-  </si>
-  <si>
-    <t>Rofik Sarengat</t>
-  </si>
-  <si>
-    <t>Viki Handiko</t>
-  </si>
-  <si>
-    <t>Dzaky Zubair</t>
-  </si>
-  <si>
-    <t>As Mir</t>
-  </si>
-  <si>
-    <t>Gondoutomo Utomo</t>
-  </si>
-  <si>
-    <t>christian herlambang</t>
-  </si>
-  <si>
-    <t>Samsung Mduasatu</t>
-  </si>
-  <si>
-    <t>Supriagung Aditama</t>
-  </si>
-  <si>
-    <t>Sabilillahi Tyzyi</t>
-  </si>
-  <si>
-    <t>Ari Yanto</t>
-  </si>
-  <si>
-    <t>Diary Leterrr</t>
-  </si>
-  <si>
-    <t>Asep Bakso</t>
-  </si>
-  <si>
-    <t>Muh hasbi amt “Botana Foxi”</t>
-  </si>
-  <si>
-    <t>Iky Reni</t>
-  </si>
-  <si>
-    <t>Centini Centil</t>
-  </si>
-  <si>
-    <t>Sopian Iskandar</t>
-  </si>
-  <si>
-    <t>Raya Cok</t>
-  </si>
-  <si>
-    <t>Edi Arianto</t>
-  </si>
-  <si>
-    <t>Dewi sapitri Dewi</t>
-  </si>
-  <si>
-    <t>Nyoman Artana</t>
-  </si>
-  <si>
-    <t>Sobri Yadi</t>
-  </si>
-  <si>
-    <t>Adeeva Myeshs</t>
-  </si>
-  <si>
-    <t>Ali Syahbana</t>
-  </si>
-  <si>
-    <t>Tatep Hamdani</t>
-  </si>
-  <si>
-    <t>RUS Yamah</t>
-  </si>
-  <si>
-    <t>HengkerPro WibuTzy:V</t>
-  </si>
-  <si>
-    <t>Hamizan top</t>
-  </si>
-  <si>
-    <t>Zheanda Tivaliviyo</t>
-  </si>
-  <si>
-    <t>Nasrullah Manis</t>
-  </si>
-  <si>
-    <t>Roni</t>
-  </si>
-  <si>
-    <t>Kidnep Onoites</t>
-  </si>
-  <si>
-    <t>iblis Terakhir</t>
-  </si>
-  <si>
-    <t>Edi Jalaludin</t>
-  </si>
-  <si>
-    <t>Er Langga</t>
-  </si>
-  <si>
-    <t>Agan Renyod</t>
-  </si>
-  <si>
-    <t>kartini dukuh</t>
-  </si>
-  <si>
-    <t>Dadang Mulyana 80</t>
-  </si>
-  <si>
-    <t>Eibhin Bhin</t>
-  </si>
-  <si>
-    <t>Adi Nurhakim</t>
-  </si>
-  <si>
-    <t>Bagas Grab</t>
-  </si>
-  <si>
-    <t>Dilan Brenda</t>
-  </si>
-  <si>
-    <t>Asihyani Wijaya</t>
-  </si>
-  <si>
-    <t>ADI IRMANTORO</t>
-  </si>
-  <si>
-    <t>Ayus Maryanto</t>
-  </si>
-  <si>
-    <t>Warnoto Alea</t>
-  </si>
-  <si>
-    <t>Limin ho Limin ho</t>
-  </si>
-  <si>
-    <t>Nauval Reynand</t>
-  </si>
-  <si>
-    <t>riochandra Slebew</t>
-  </si>
-  <si>
-    <t>D1 MAS</t>
-  </si>
-  <si>
-    <t>Satria muda1 Satria muda2</t>
-  </si>
-  <si>
-    <t>Irvan Maulana</t>
-  </si>
-  <si>
-    <t>Heru Nehru</t>
-  </si>
-  <si>
-    <t>Bapake Maulida</t>
-  </si>
-  <si>
-    <t>Fina Lestari</t>
-  </si>
-  <si>
-    <t>Khariz Aja (Khariz)</t>
-  </si>
-  <si>
-    <t>Irfnsyh 2411</t>
-  </si>
-  <si>
-    <t>hendi fnsyh</t>
-  </si>
-  <si>
-    <t>Qory ayu Fazirah</t>
-  </si>
-  <si>
-    <t>Robert Januar</t>
-  </si>
-  <si>
-    <t>Rana Alvan</t>
-  </si>
-  <si>
-    <t>abdur rahman</t>
-  </si>
-  <si>
-    <t>Za Sabilla</t>
-  </si>
-  <si>
-    <t>Rayhan Athallah</t>
-  </si>
-  <si>
-    <t>Kartini Alcapone</t>
-  </si>
-  <si>
-    <t>Arien Marcello</t>
-  </si>
-  <si>
-    <t>Yusuf Supriadi</t>
-  </si>
-  <si>
-    <t>Dewi Keisya</t>
-  </si>
-  <si>
-    <t>Riziq Agung</t>
-  </si>
-  <si>
-    <t>Lucky Satrio</t>
-  </si>
-  <si>
-    <t>Abah Tgb</t>
-  </si>
-  <si>
-    <t>asep yayat</t>
-  </si>
-  <si>
-    <t>Raisa SKD</t>
-  </si>
-  <si>
-    <t>Rono cakin</t>
-  </si>
-  <si>
-    <t>Vivo Sony</t>
-  </si>
-  <si>
-    <t>Deron Deron</t>
-  </si>
-  <si>
-    <t>Vivo Y55s</t>
-  </si>
-  <si>
-    <t>Alda Sugiato</t>
-  </si>
-  <si>
-    <t>Dani Sukaesih</t>
-  </si>
-  <si>
-    <t>Nurhasim Ploso</t>
-  </si>
-  <si>
-    <t>Muji Pratama</t>
-  </si>
-  <si>
-    <t>Muhammad Ridwan</t>
-  </si>
-  <si>
-    <t>Farel Triono</t>
-  </si>
-  <si>
-    <t>mamah moey</t>
-  </si>
-  <si>
-    <t>Syaiful Bahri</t>
-  </si>
-  <si>
-    <t>Tumarno Hadi</t>
-  </si>
-  <si>
-    <t>Rio B3s</t>
-  </si>
-  <si>
-    <t>Halik Lailatus</t>
-  </si>
-  <si>
-    <t>Heri Yanto</t>
-  </si>
-  <si>
-    <t>don0 09</t>
-  </si>
-  <si>
-    <t>Joko Santoso</t>
-  </si>
-  <si>
-    <t>test aza</t>
-  </si>
-  <si>
-    <t>Dzoel Malalo</t>
-  </si>
-  <si>
-    <t>Nita Alamsyah</t>
-  </si>
-  <si>
-    <t>Mang Ato</t>
-  </si>
-  <si>
-    <t>Ander bekmen</t>
-  </si>
-  <si>
-    <t>awal yasta</t>
-  </si>
-  <si>
-    <t>Rico Irawan</t>
-  </si>
-  <si>
-    <t>Muhammad Bagus</t>
-  </si>
-  <si>
-    <t>Raihan Haika</t>
-  </si>
-  <si>
-    <t>Hadi Nofal</t>
-  </si>
-  <si>
-    <t>Elawativitria Hartanthy</t>
-  </si>
-  <si>
-    <t>Boezhanx Rhanxcotto</t>
-  </si>
-  <si>
-    <t>alifalfatih</t>
-  </si>
-  <si>
-    <t>Fikri Assegaf</t>
-  </si>
-  <si>
-    <t>Wawan Darmawan</t>
-  </si>
-  <si>
-    <t>well adi</t>
-  </si>
-  <si>
-    <t>I Wayan Suka Ariana</t>
-  </si>
-  <si>
-    <t>kokoh azka</t>
-  </si>
-  <si>
-    <t>D'king</t>
-  </si>
-  <si>
-    <t>Uni Rikhayati</t>
-  </si>
-  <si>
-    <t>Maulana Rahman</t>
-  </si>
-  <si>
-    <t>Katiman Supriadi</t>
-  </si>
-  <si>
-    <t>Ahmad Fauzi</t>
-  </si>
-  <si>
-    <t>vyna erlna</t>
-  </si>
-  <si>
-    <t>Rafa</t>
-  </si>
-  <si>
-    <t>Yan Ringgo</t>
-  </si>
-  <si>
-    <t>R A</t>
-  </si>
-  <si>
-    <t>Epep Mabar</t>
-  </si>
-  <si>
-    <t>saikhu 6666</t>
-  </si>
-  <si>
-    <t>Mala Fitria2828</t>
-  </si>
-  <si>
-    <t>Villa Riel Cibalung</t>
-  </si>
-  <si>
-    <t>Ningrum Chann</t>
-  </si>
-  <si>
-    <t>Dafa Faiq alhakim</t>
-  </si>
-  <si>
-    <t>Amira Saputri</t>
-  </si>
-  <si>
-    <t>Mirza Alista</t>
-  </si>
-  <si>
-    <t>Yudi Nagrak</t>
-  </si>
-  <si>
-    <t>Evan Haikalardan</t>
-  </si>
-  <si>
-    <t>Tamara Rizhqiana</t>
-  </si>
-  <si>
-    <t>Nunung Lisam</t>
-  </si>
-  <si>
-    <t>seam</t>
-  </si>
-  <si>
-    <t>Rizky Diza</t>
-  </si>
-  <si>
-    <t>Mawar Sinah</t>
-  </si>
-  <si>
-    <t>Kar Pet</t>
-  </si>
-  <si>
-    <t>danielpurba daniel</t>
-  </si>
-  <si>
-    <t>Yohanes Edison</t>
-  </si>
-  <si>
-    <t>Dul Jamil</t>
-  </si>
-  <si>
-    <t>Mifthakhul Huda</t>
-  </si>
-  <si>
-    <t>Muhamad Ramzhi f</t>
-  </si>
-  <si>
-    <t>Maulana Aldilla</t>
-  </si>
-  <si>
-    <t>Silfa Sofian</t>
-  </si>
-  <si>
-    <t>Edi Santoso</t>
-  </si>
-  <si>
-    <t>Hudaefah 0827</t>
-  </si>
-  <si>
-    <t>Kuzan Kece</t>
-  </si>
-  <si>
-    <t>Ahmad Riski</t>
-  </si>
-  <si>
-    <t>Apuy Setia</t>
-  </si>
-  <si>
-    <t>Askin Q-noy</t>
-  </si>
-  <si>
-    <t>Miie Azfardaffa</t>
-  </si>
-  <si>
-    <t>Mike Ari</t>
-  </si>
-  <si>
-    <t>Tirta Sasmita</t>
-  </si>
-  <si>
-    <t>Muhan Ibsam</t>
-  </si>
-  <si>
-    <t>Saskia Kaha</t>
-  </si>
-  <si>
-    <t>Birin Alibaba</t>
-  </si>
-  <si>
-    <t>rofi huda</t>
-  </si>
-  <si>
-    <t>taka mario</t>
-  </si>
-  <si>
-    <t>Iwansuryawan Indodax</t>
-  </si>
-  <si>
-    <t>Indah permata Sari</t>
-  </si>
-  <si>
-    <t>lisma wati</t>
-  </si>
-  <si>
-    <t>Fatur Mhungel</t>
-  </si>
-  <si>
-    <t>Oksa Jawara</t>
-  </si>
-  <si>
-    <t>Tar Mizi</t>
-  </si>
-  <si>
-    <t>Adzkhan Saeful</t>
-  </si>
-  <si>
-    <t>Maryadi Marya</t>
-  </si>
-  <si>
-    <t>Yani Sumarni</t>
-  </si>
-  <si>
-    <t>Aceh Marsel</t>
-  </si>
-  <si>
-    <t>Zainal Supriyanto</t>
-  </si>
-  <si>
-    <t>Ujang Rapan</t>
-  </si>
-  <si>
-    <t>Eliza Shafa</t>
-  </si>
-  <si>
-    <t>Herman Pelani</t>
-  </si>
-  <si>
-    <t>Adel Nova</t>
-  </si>
-  <si>
-    <t>Mas ponang 3</t>
-  </si>
-  <si>
-    <t>i MARGIANTO</t>
-  </si>
-  <si>
-    <t>Ael Jaelani</t>
-  </si>
-  <si>
-    <t>Heru St</t>
-  </si>
-  <si>
-    <t>KiNg LiMo</t>
-  </si>
-  <si>
-    <t>Herry Wahyudi</t>
-  </si>
-  <si>
-    <t>Azril Baru</t>
-  </si>
-  <si>
-    <t>Reza Danil</t>
-  </si>
-  <si>
-    <t>Yusuf Roket</t>
-  </si>
-  <si>
-    <t>Roni zoy57</t>
-  </si>
-  <si>
-    <t>Yodi Dharma</t>
-  </si>
-  <si>
-    <t>Gapur Rina</t>
-  </si>
-  <si>
-    <t>Anto Maulanah</t>
-  </si>
-  <si>
-    <t>Muhamad Ules</t>
-  </si>
-  <si>
-    <t>Umy Aby</t>
-  </si>
-  <si>
-    <t>Joanasilva melvin</t>
-  </si>
-  <si>
-    <t>ONES PUTRA</t>
-  </si>
-  <si>
-    <t>Johan Asnawi</t>
-  </si>
-  <si>
-    <t>Dicky Dep</t>
-  </si>
-  <si>
-    <t>Hendro Uut</t>
-  </si>
-  <si>
-    <t>Indra Fobia</t>
-  </si>
-  <si>
-    <t>Nonon Kasan</t>
-  </si>
-  <si>
-    <t>Bratang Pumpungan</t>
-  </si>
-  <si>
-    <t>Mohammad Miftah Alghafari</t>
-  </si>
-  <si>
-    <t>Turono</t>
-  </si>
-  <si>
-    <t>rihan Paradis14</t>
-  </si>
-  <si>
-    <t>Achmad Riono</t>
+    <t>Haji Komarudin</t>
+  </si>
+  <si>
+    <t>Ahmad Arifin</t>
+  </si>
+  <si>
+    <t>Sutan Parulian</t>
+  </si>
+  <si>
+    <t>Abah Parman</t>
+  </si>
+  <si>
+    <t>gusti ayu Ratih kemala sari xe.1 / 5</t>
+  </si>
+  <si>
+    <t>Hadi Kelonan</t>
+  </si>
+  <si>
+    <t>Hendri Hariyadi</t>
+  </si>
+  <si>
+    <t>sapcono no</t>
+  </si>
+  <si>
+    <t>Siti Atikah</t>
+  </si>
+  <si>
+    <t>Agus Nanang</t>
+  </si>
+  <si>
+    <t>Surya Yaa</t>
+  </si>
+  <si>
+    <t>Zahra Aniti</t>
+  </si>
+  <si>
+    <t>joker jack</t>
+  </si>
+  <si>
+    <t>Hanafi</t>
+  </si>
+  <si>
+    <t>Bagas Asah</t>
+  </si>
+  <si>
+    <t>Sus Suswanto</t>
+  </si>
+  <si>
+    <t>Santang Tang</t>
+  </si>
+  <si>
+    <t>Umar Hamzah</t>
+  </si>
+  <si>
+    <t>Evi susanti</t>
+  </si>
+  <si>
+    <t>Hana Wati</t>
+  </si>
+  <si>
+    <t>Muhammad Arsyad</t>
+  </si>
+  <si>
+    <t>Raza Purba boss</t>
+  </si>
+  <si>
+    <t>M Ferdi yansah</t>
+  </si>
+  <si>
+    <t>Ghazyfahtu Razaq</t>
+  </si>
+  <si>
+    <t>Neng Sobariah</t>
+  </si>
+  <si>
+    <t>Ian S</t>
+  </si>
+  <si>
+    <t>Yusni Dwi Kurniawan</t>
+  </si>
+  <si>
+    <t>endang sofyan</t>
+  </si>
+  <si>
+    <t>A S</t>
+  </si>
+  <si>
+    <t>Luhde Kariasih</t>
+  </si>
+  <si>
+    <t>April Yanto</t>
+  </si>
+  <si>
+    <t>Lukman Bule</t>
+  </si>
+  <si>
+    <t>birin sobirin</t>
+  </si>
+  <si>
+    <t>bowo tehnik</t>
+  </si>
+  <si>
+    <t>Hariadi Nasier</t>
+  </si>
+  <si>
+    <t>Andre Andre zulhelmi</t>
+  </si>
+  <si>
+    <t>Endoh Saja</t>
+  </si>
+  <si>
+    <t>Dymas Adika pratama</t>
+  </si>
+  <si>
+    <t>Fadli Yink</t>
+  </si>
+  <si>
+    <t>Rian Sp3</t>
+  </si>
+  <si>
+    <t>Haris Com</t>
+  </si>
+  <si>
+    <t>Tantri Auliazahro</t>
+  </si>
+  <si>
+    <t>Alon Alone</t>
+  </si>
+  <si>
+    <t>Slamet Bachtiar</t>
+  </si>
+  <si>
+    <t>Dewi Naezura</t>
+  </si>
+  <si>
+    <t>Muhamad Idrus</t>
+  </si>
+  <si>
+    <t>adrian Pratama</t>
+  </si>
+  <si>
+    <t>Samsung J5</t>
+  </si>
+  <si>
+    <t>DUREN SAWET</t>
+  </si>
+  <si>
+    <t>Cuwe Enew</t>
+  </si>
+  <si>
+    <t>Raya Rifa</t>
+  </si>
+  <si>
+    <t>Raihan Kp</t>
+  </si>
+  <si>
+    <t>Agus Saleh</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AMNAN</t>
+  </si>
+  <si>
+    <t>dea mirin</t>
+  </si>
+  <si>
+    <t>Suci Dian Permatasari</t>
+  </si>
+  <si>
+    <t>Dody Utomo</t>
+  </si>
+  <si>
+    <t>Cucu Kurniawan</t>
+  </si>
+  <si>
+    <t>Syaripudin Rohil</t>
+  </si>
+  <si>
+    <t>Indah Nurjanah</t>
+  </si>
+  <si>
+    <t>M. Naufal</t>
+  </si>
+  <si>
+    <t>Atom Mi</t>
+  </si>
+  <si>
+    <t>Alif Wibisono</t>
+  </si>
+  <si>
+    <t>Siti Umroh</t>
+  </si>
+  <si>
+    <t>Surya Jaya Wicaksono</t>
+  </si>
+  <si>
+    <t>Unen Inen</t>
+  </si>
+  <si>
+    <t>ahmad samsul arifin arifin</t>
+  </si>
+  <si>
+    <t>Hy Ny</t>
+  </si>
+  <si>
+    <t>Yuda Pratama putra</t>
+  </si>
+  <si>
+    <t>Yulita Anggara</t>
+  </si>
+  <si>
+    <t>Kholilah Kholifah</t>
+  </si>
+  <si>
+    <t>hussain Mussa</t>
+  </si>
+  <si>
+    <t>Miko Abah</t>
+  </si>
+  <si>
+    <t>Herinur Nur</t>
+  </si>
+  <si>
+    <t>Ryu Ken</t>
+  </si>
+  <si>
+    <t>Lilis Maemunah</t>
+  </si>
+  <si>
+    <t>Hasby Banjar</t>
+  </si>
+  <si>
+    <t>Haykal Azril</t>
+  </si>
+  <si>
+    <t>Saprol Saprol</t>
+  </si>
+  <si>
+    <t>Hendra Permana</t>
+  </si>
+  <si>
+    <t>Muslipah Jambi</t>
+  </si>
+  <si>
+    <t>Lukman Hakim</t>
+  </si>
+  <si>
+    <t>Khairul Arifandi</t>
+  </si>
+  <si>
+    <t>ArkanSaid Ramadhan</t>
+  </si>
+  <si>
+    <t>Aisayh Nor</t>
+  </si>
+  <si>
+    <t>puji suryo</t>
+  </si>
+  <si>
+    <t>dani murdani</t>
+  </si>
+  <si>
+    <t>Liee Shumaqer</t>
+  </si>
+  <si>
+    <t>Yuliana Banturino</t>
+  </si>
+  <si>
+    <t>Rizky Alfian</t>
+  </si>
+  <si>
+    <t>Rifki Ramadhan</t>
+  </si>
+  <si>
+    <t>Atim Namina</t>
+  </si>
+  <si>
+    <t>goodmorning coffee</t>
+  </si>
+  <si>
+    <t>Mohan Fitriani izzan</t>
+  </si>
+  <si>
+    <t>Rafael Chandra</t>
+  </si>
+  <si>
+    <t>Samira Mira</t>
+  </si>
+  <si>
+    <t>Liasan Liasan</t>
+  </si>
+  <si>
+    <t>Ahmadsahdan</t>
+  </si>
+  <si>
+    <t>Goyang Aya</t>
+  </si>
+  <si>
+    <t>Rosandita Siregar</t>
+  </si>
+  <si>
+    <t>Samsul Raditya</t>
+  </si>
+  <si>
+    <t>Mambaul Ghufron</t>
+  </si>
+  <si>
+    <t>Alvin Keren</t>
+  </si>
+  <si>
+    <t>Al Dasthank</t>
+  </si>
+  <si>
+    <t>syaiful umam</t>
+  </si>
+  <si>
+    <t>Mis Muri</t>
+  </si>
+  <si>
+    <t>bagok bagok</t>
+  </si>
+  <si>
+    <t>Ryanto Yanto</t>
+  </si>
+  <si>
+    <t>Djoko Purwanto</t>
+  </si>
+  <si>
+    <t>Cepi Rahayu</t>
+  </si>
+  <si>
+    <t>Didin Samsudin</t>
+  </si>
+  <si>
+    <t>Achmad Farijul</t>
+  </si>
+  <si>
+    <t>Alawiyah Azijah</t>
+  </si>
+  <si>
+    <t>FERI. GENDOET</t>
+  </si>
+  <si>
+    <t>asyudi</t>
+  </si>
+  <si>
+    <t>Gugleidd</t>
+  </si>
+  <si>
+    <t>sugiatno sugi</t>
+  </si>
+  <si>
+    <t>Batir cilik</t>
+  </si>
+  <si>
+    <t>mang odading</t>
+  </si>
+  <si>
+    <t>Firman Syah</t>
+  </si>
+  <si>
+    <t>Tolet Saksena</t>
+  </si>
+  <si>
+    <t>Ade nasir Faroji</t>
+  </si>
+  <si>
+    <t>Rival Yanti</t>
+  </si>
+  <si>
+    <t>Susila wati</t>
+  </si>
+  <si>
+    <t>Nauval Cahya</t>
+  </si>
+  <si>
+    <t>Bakwan Goreng</t>
+  </si>
+  <si>
+    <t>Upu Aisyah</t>
+  </si>
+  <si>
+    <t>dicky Aja</t>
+  </si>
+  <si>
+    <t>Kadarisman Kadarisman</t>
+  </si>
+  <si>
+    <t>Nadhir Rina</t>
+  </si>
+  <si>
+    <t>wiyantoyanto Wiyantoyanto</t>
+  </si>
+  <si>
+    <t>gragal 535</t>
+  </si>
+  <si>
+    <t>putra dragunov</t>
+  </si>
+  <si>
+    <t>Aldi Muhamad rizky linardi</t>
+  </si>
+  <si>
+    <t>Renita Putriyani</t>
+  </si>
+  <si>
+    <t>Riyan Komeng</t>
+  </si>
+  <si>
+    <t>Hanaji Naji</t>
+  </si>
+  <si>
+    <t>ribuka kreku</t>
+  </si>
+  <si>
+    <t>Mukasih haryono</t>
+  </si>
+  <si>
+    <t>Ana Yati</t>
+  </si>
+  <si>
+    <t>Super Man</t>
+  </si>
+  <si>
+    <t>Fandi Alatas</t>
+  </si>
+  <si>
+    <t>Abdur Rohim</t>
+  </si>
+  <si>
+    <t>ANNYSHA CHAN</t>
+  </si>
+  <si>
+    <t>Ranto Parulian</t>
+  </si>
+  <si>
+    <t>Lo Karyana</t>
+  </si>
+  <si>
+    <t>Fikrie Fikriye</t>
+  </si>
+  <si>
+    <t>ALISYAHDI LEMBONG</t>
+  </si>
+  <si>
+    <t>Maryati Zaenal</t>
+  </si>
+  <si>
+    <t>Putra leo</t>
+  </si>
+  <si>
+    <t>Amira Ika</t>
+  </si>
+  <si>
+    <t>Aqmal Syahbani</t>
+  </si>
+  <si>
+    <t>Dwi Adi</t>
+  </si>
+  <si>
+    <t>Tommy baskhara</t>
+  </si>
+  <si>
+    <t>Moh Freidi Musran</t>
+  </si>
+  <si>
+    <t>YT . HP KENTANGERS</t>
+  </si>
+  <si>
+    <t>Mulyono Pratama</t>
+  </si>
+  <si>
+    <t>daniel</t>
+  </si>
+  <si>
+    <t>Husen Aja</t>
+  </si>
+  <si>
+    <t>Muhammad Gemehsodo</t>
+  </si>
+  <si>
+    <t>Akhir Zaman</t>
+  </si>
+  <si>
+    <t>Hunlie 27</t>
+  </si>
+  <si>
+    <t>M Fadhil</t>
+  </si>
+  <si>
+    <t>Nur'aeni wargabinangun</t>
+  </si>
+  <si>
+    <t>Janun 2024</t>
+  </si>
+  <si>
+    <t>Hero Linus</t>
+  </si>
+  <si>
+    <t>Sarbani Bani</t>
+  </si>
+  <si>
+    <t>Purwoko Ekonugroho</t>
+  </si>
+  <si>
+    <t>Ashalina Jeasy</t>
+  </si>
+  <si>
+    <t>Rahmad Dava</t>
+  </si>
+  <si>
+    <t>Surya Dinatha</t>
+  </si>
+  <si>
+    <t>Adib Khancel</t>
+  </si>
+  <si>
+    <t>andri bastian</t>
+  </si>
+  <si>
+    <t>Rizki Akbar Maulana</t>
+  </si>
+  <si>
+    <t>Harun Purnomo</t>
+  </si>
+  <si>
+    <t>Jawa Pos</t>
+  </si>
+  <si>
+    <t>Ruli Aslam</t>
+  </si>
+  <si>
+    <t>Baseng Aja</t>
+  </si>
+  <si>
+    <t>Asifa Nur fadhilah</t>
+  </si>
+  <si>
+    <t>Danang Reksoaji</t>
+  </si>
+  <si>
+    <t>Orang gila Orang gila</t>
+  </si>
+  <si>
+    <t>Nurhayati Yati</t>
+  </si>
+  <si>
+    <t>Manceman Man</t>
+  </si>
+  <si>
+    <t>Arwan Kurniawan</t>
+  </si>
+  <si>
+    <t>Imam Syafa'at</t>
+  </si>
+  <si>
+    <t>Ady Saputra</t>
+  </si>
+  <si>
+    <t>Abi Arya</t>
+  </si>
+  <si>
+    <t>Akbar Aprizal</t>
+  </si>
+  <si>
+    <t>Entis Sutisna</t>
+  </si>
+  <si>
+    <t>Jhon arema</t>
+  </si>
+  <si>
+    <t>HiDayatullah Ayat</t>
+  </si>
+  <si>
+    <t>Slamet Protokol</t>
+  </si>
+  <si>
+    <t>Pen Dozza</t>
+  </si>
+  <si>
+    <t>Ari Sugianto</t>
+  </si>
+  <si>
+    <t>Edy Susanto</t>
+  </si>
+  <si>
+    <t>Sian Turi (Ron)</t>
+  </si>
+  <si>
+    <t>Evan Supriadi</t>
+  </si>
+  <si>
+    <t>Dwi raya Ainun fitri</t>
+  </si>
+  <si>
+    <t>Hardi Hardi</t>
+  </si>
+  <si>
+    <t>Seftiani Seftiani</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>Anjay anjay Kren</t>
+  </si>
+  <si>
+    <t>Bagus aplikasi nya</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>gotube sangat bagus.. Menampilkan hiburan yg menarik..</t>
+  </si>
+  <si>
+    <t>Go Tube mantap gak ada kendala</t>
+  </si>
+  <si>
+    <t>Saya baru menggunakan aplikasi GoTube ini. Aplikasinya sangat bagus sekali. Mudah digunakan dan sangat menghibur. Juga sangat lengkap sekali. Terima kasih ya. Salam.</t>
+  </si>
+  <si>
+    <t>aplikasinya bagus mudah mencari yang lagi treding</t>
+  </si>
+  <si>
+    <t>Sangat bagus</t>
+  </si>
+  <si>
+    <t>Top keren tanpa iklan tinggalkan terus misi lagu lagu semuanya</t>
+  </si>
+  <si>
+    <t>Sangat baik dan sangat membantu</t>
+  </si>
+  <si>
+    <t>Seru dan enak buat mencari informasi</t>
+  </si>
+  <si>
+    <t>Seandainya poin bisa d tukar dengan dana/ adabpinjaman di sini. Yakin saya bisa mengalahkan apk lain</t>
+  </si>
+  <si>
+    <t>Keren. Sangat menikmati</t>
+  </si>
+  <si>
+    <t>Mantap</t>
+  </si>
+  <si>
+    <t>Bagus banget Aplikasi ini mksh 🙏</t>
+  </si>
+  <si>
+    <t>Lumayan lah walau pun ada iklan klo masuk lagi 👍👍👍👍😊</t>
+  </si>
+  <si>
+    <t>nyobak dulu</t>
+  </si>
+  <si>
+    <t>sangat bagus</t>
+  </si>
+  <si>
+    <t>Bagus</t>
+  </si>
+  <si>
+    <t>Super bagus dan menyenangkan</t>
+  </si>
+  <si>
+    <t>Kerren😎</t>
+  </si>
+  <si>
+    <t>Suka bsa latar belakang</t>
+  </si>
+  <si>
+    <t>Batere hp android cepat boros</t>
+  </si>
+  <si>
+    <t>Bagus mantap ga kaya aplikasi sebelah</t>
+  </si>
+  <si>
+    <t>Oke banget</t>
+  </si>
+  <si>
+    <t>Saya sangat suka aplikasi ini karena minim iklan bahkan hampir tidak ada,suara &amp; tampilan gambar bagus.</t>
+  </si>
+  <si>
+    <t>Okok</t>
+  </si>
+  <si>
+    <t>Baik</t>
+  </si>
+  <si>
+    <t>kerenn buangettt 👍👍👍</t>
+  </si>
+  <si>
+    <t>Bagus,, saya suka krna nonton gk di ganggu iklan,, mantap...</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>bermanfaat untuk belajar</t>
+  </si>
+  <si>
+    <t>bagus dan puas</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>Terimakasih GoTube, Aplikasi yang sangat bagus dan membantu</t>
-  </si>
-  <si>
-    <t>Mantap pokoknya</t>
-  </si>
-  <si>
-    <t>Saat kita memutar lagu-lagu dari Go tube kita masih bisa menjalankan aplikasi lainnya misalkan chatting</t>
-  </si>
-  <si>
-    <t>seneng Ama gotube mantul dengerin JD nyaman tanpa iklan</t>
+    <t>Anjai</t>
+  </si>
+  <si>
+    <t>Aneh</t>
+  </si>
+  <si>
+    <t>setiap buka gotube muncul iklan terus tolong agak dikurangi iklannya</t>
+  </si>
+  <si>
+    <t>Siip</t>
+  </si>
+  <si>
+    <t>Memuas kan</t>
+  </si>
+  <si>
+    <t>Pengguna gratis harus di cekek dengan iklan bertubi-tubi</t>
+  </si>
+  <si>
+    <t>Mantappp engga nyesal dah</t>
+  </si>
+  <si>
+    <t>Mantaaaap setiap yang disajikan musiknya hooot banget terima kasih.</t>
+  </si>
+  <si>
+    <t>go tube banyak memakan baterai 79</t>
+  </si>
+  <si>
+    <t>👍</t>
+  </si>
+  <si>
+    <t>Bagus gada iklannya</t>
+  </si>
+  <si>
+    <t>apk ini sgt bagus dn tdk kebanykan iklan👍👍.</t>
+  </si>
+  <si>
+    <t>Okeh</t>
+  </si>
+  <si>
+    <t>Gambar nya burem ,-,</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>Suka bgt dgn apk ini bisa sambil opline</t>
+  </si>
+  <si>
+    <t>Mantap 👍👍👍👍👍👍</t>
+  </si>
+  <si>
+    <t>sayangnya tdk bsa buat nyimpan video</t>
+  </si>
+  <si>
+    <t>Mantab</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Mantap kali</t>
+  </si>
+  <si>
+    <t>Bagus sekali</t>
+  </si>
+  <si>
+    <t>Awalnya sih nih aplikasi bagus banget saya suka sama fitur-fiturnya karena gratis gak kayak youtube harus premium. tapi lama kelamaan makin boros pemakaian kouta dan sering ngebug tampilannya seperti pencarian google tolong di perbaiki Developer saya suka ni apk cuman masalah kouta yg boros saya stop dlu pakai apk ini</t>
+  </si>
+  <si>
+    <t>Katanya babi</t>
+  </si>
+  <si>
+    <t>Bug macet pas scroll, nge blink"</t>
+  </si>
+  <si>
+    <t>Lelet</t>
+  </si>
+  <si>
+    <t>Saya senang</t>
+  </si>
+  <si>
+    <t>Terima kasih go tube telah memberikan kan aplikasi yg bermman manfaat buat masayarakat Indonesia semangat terus</t>
+  </si>
+  <si>
+    <t>Pokok ya bisa segala hal</t>
+  </si>
+  <si>
+    <t>Apa borosin kuota</t>
+  </si>
+  <si>
+    <t>mantap ga ada iklan jadi tenang dengerin lagu✓video nya</t>
+  </si>
+  <si>
+    <t>bagus jg mantap.. 👍👍👍</t>
+  </si>
+  <si>
+    <t>Lagunya asyik banyak pilihan tanpa iklan lancar tanpa hambatan</t>
+  </si>
+  <si>
+    <t>Mantap tanpa iklan</t>
+  </si>
+  <si>
+    <t>Sukses selalu Go tube 💪</t>
+  </si>
+  <si>
+    <t>Keren abis</t>
+  </si>
+  <si>
+    <t>Enak pake gotube jarang iklan</t>
+  </si>
+  <si>
+    <t>Terus kasih yang Ter up date....</t>
+  </si>
+  <si>
+    <t>Mantap Lanjut kan kecepatan nya</t>
+  </si>
+  <si>
+    <t>Puas</t>
+  </si>
+  <si>
+    <t>Bagus walaupun ada sedikit iklan</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>Bagus👍</t>
+  </si>
+  <si>
+    <t>go tube adalah apk yang sangat sangat bermanfaat dan tanpa iklan sedikitpun,apk yang layak untuk mendapatkan bintang ⭐⭐⭐⭐⭐</t>
+  </si>
+  <si>
+    <t>Sekarang hanya jadi browser</t>
+  </si>
+  <si>
+    <t>Oke</t>
+  </si>
+  <si>
+    <t>𝑏𝑎𝑔𝑎𝑖𝑚𝑎𝑛𝑎 𝑐𝑎𝑟𝑎 𝑚𝑒𝑛𝑔ℎ𝑖𝑙𝑎𝑛𝑔𝑘𝑎𝑛 𝑖𝑘𝑙𝑎𝑛 𝑑𝑖 𝑎𝑝𝑙𝑖𝑘𝑎𝑠𝑖 gotub</t>
+  </si>
+  <si>
+    <t>Aku suka GoTube</t>
+  </si>
+  <si>
+    <t>Aplikasinya sangat bagus</t>
+  </si>
+  <si>
+    <t>Banyak iklan, tiba² masuk apk lazada slot lah ini itu. Parah</t>
+  </si>
+  <si>
+    <t>Mantap musik tanpa iklan itu menyenangkan 👍</t>
+  </si>
+  <si>
+    <t>Kenapa pas saya nonton pop up terus main game Roblox, vidio nya selalu ilang ya?</t>
+  </si>
+  <si>
+    <t>Lumayan</t>
+  </si>
+  <si>
+    <t>Semoga semkin baik</t>
+  </si>
+  <si>
+    <t>aplikasinya sangat bagus</t>
   </si>
   <si>
     <t>bagus</t>
   </si>
   <si>
-    <t>no iklan</t>
-  </si>
-  <si>
-    <t>Udah gak bagus lagi ini mah</t>
-  </si>
-  <si>
-    <t>Setip aflikasi yang didonlot Ngga bisa dibuka</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Ya bagus aja😊</t>
-  </si>
-  <si>
-    <t>Mantap</t>
-  </si>
-  <si>
     <t>Bagus banget</t>
   </si>
   <si>
-    <t>Oklelah</t>
-  </si>
-  <si>
-    <t>keren banget go tube saya suka...</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>Sempurna aplikasinya</t>
-  </si>
-  <si>
-    <t>sangat baik</t>
+    <t>macet2 kalau mutar music tolong di perbaiki lagi aplikasinya</t>
+  </si>
+  <si>
+    <t>Bagus bgt bisa menonton setiap hari</t>
+  </si>
+  <si>
+    <t>Mantul</t>
+  </si>
+  <si>
+    <t>Enak di pakai.</t>
+  </si>
+  <si>
+    <t>aplikasi yg d rekomendasikan untuk semua</t>
+  </si>
+  <si>
+    <t>Aplikasi nya bagus dan menarik</t>
+  </si>
+  <si>
+    <t>Bagus,baik</t>
+  </si>
+  <si>
+    <t>Goood</t>
+  </si>
+  <si>
+    <t>Go tube its the best</t>
+  </si>
+  <si>
+    <t>Sangat puas</t>
+  </si>
+  <si>
+    <t>Sangat seru</t>
+  </si>
+  <si>
+    <t>Sejauh ini ok banget</t>
+  </si>
+  <si>
+    <t>muantap bg</t>
+  </si>
+  <si>
+    <t>Mantapppl</t>
+  </si>
+  <si>
+    <t>Saya suku memutarmusik di sini</t>
+  </si>
+  <si>
+    <t>siip GO Tube hebat n joos..</t>
+  </si>
+  <si>
+    <t>I like it</t>
+  </si>
+  <si>
+    <t>Ok bagus bngget</t>
+  </si>
+  <si>
+    <t>Mantap pakai GoTube</t>
+  </si>
+  <si>
+    <t>Sering error could play this video</t>
+  </si>
+  <si>
+    <t>Mantull</t>
+  </si>
+  <si>
+    <t>Mantsp you tubgo tanpa iklan</t>
+  </si>
+  <si>
+    <t>Bagus kena d hati</t>
+  </si>
+  <si>
+    <t>Tes dulu klau bgus tambah bintang</t>
+  </si>
+  <si>
+    <t>Bagus👍👍</t>
+  </si>
+  <si>
+    <t>Hy admin tolong perbaiki go tube saya ,dan saya tidak bisa melakukan pemutaran video ,musik ,yang ada malah seperti google,tolong perbaiki terimakasih</t>
+  </si>
+  <si>
+    <t>Go tube emang ok👌👌👌</t>
   </si>
   <si>
     <t>Keren</t>
   </si>
   <si>
-    <t>Lebih bagus dari YouTube biasa, soalnya ga ada iklan</t>
-  </si>
-  <si>
-    <t>Bagus</t>
-  </si>
-  <si>
-    <t>Sukaa,, karna minim iklan</t>
-  </si>
-  <si>
-    <t>Sangattt senang apl ini terhibur bangat</t>
-  </si>
-  <si>
-    <t>Jika manyetal musik itu enak gak perlu iklan dan tak mati mati</t>
-  </si>
-  <si>
-    <t>Kenapa gambar iklannya motif judi terus, mau dibawa kemana negri ini, coba iklannya mi instankek, skin carekek, rokokkek, elektronik kek. Dan masih banyak iklan yg berguna, bukan iklan ngajak bertaruh, kasian generasi sekarang.Udah bagus apknya, tapi bandel, pas saya buka lagi, eeeeeeiklannya ngajak main Mayong, jelas judi itu, hancur generasi sekarang ini gara2 apk ini.......................... .</t>
-  </si>
-  <si>
-    <t>bagus banget semoga kita bisa posting video/shorts juga kayak di youtube</t>
-  </si>
-  <si>
-    <t>Bagus tolong di pertahan kan jangan ada iklan lagi</t>
-  </si>
-  <si>
-    <t>Mantap daripada aplikasi sebelah tidak bisa dibuka</t>
+    <t>Very good 👍👍👍</t>
+  </si>
+  <si>
+    <t>Sangat memuaskan</t>
+  </si>
+  <si>
+    <t>Biar bintang yg berbicara 😁</t>
+  </si>
+  <si>
+    <t>Nice no iklan,,enak buat nonton</t>
+  </si>
+  <si>
+    <t>Sippp , tanpa iklan .</t>
+  </si>
+  <si>
+    <t>aplikasi gotube memang paling yahuut</t>
+  </si>
+  <si>
+    <t>Aplikasi terkeren</t>
+  </si>
+  <si>
+    <t>Sangat seru Membikin</t>
+  </si>
+  <si>
+    <t>Memuaskan</t>
+  </si>
+  <si>
+    <t>Bagus banget bisa nonton Garuda Wisnu satria muda</t>
+  </si>
+  <si>
+    <t>Mantap brow</t>
+  </si>
+  <si>
+    <t>Oke,no iklan thebest</t>
   </si>
   <si>
     <t>Jos</t>
   </si>
   <si>
-    <t>Good job</t>
-  </si>
-  <si>
-    <t>Sangat memuaskan 👍👍👍</t>
-  </si>
-  <si>
-    <t>Mantul</t>
-  </si>
-  <si>
-    <t>Good apk👍</t>
-  </si>
-  <si>
-    <t>Gotube mantul aku suka itu kasih bintang lima</t>
-  </si>
-  <si>
-    <t>Kerenn,banyak channel dan banyak sekali video video yang ada di youtube</t>
-  </si>
-  <si>
-    <t>Sangat bagus</t>
-  </si>
-  <si>
-    <t>saya suka....</t>
-  </si>
-  <si>
-    <t>apk nya bagus</t>
-  </si>
-  <si>
-    <t>Lumayan bagus😣</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>Bagus dan iklanya hampir gk ada</t>
-  </si>
-  <si>
-    <t>aplikasi paling top lah</t>
-  </si>
-  <si>
-    <t>Muanteep</t>
-  </si>
-  <si>
-    <t>Bagus sekali dan tidak ada iklan</t>
-  </si>
-  <si>
-    <t>Musiknya sitek² mati, sitik² mati juh</t>
-  </si>
-  <si>
-    <t>Oke niihh</t>
-  </si>
-  <si>
-    <t>Aplikasi kerenlah pokoknya</t>
-  </si>
-  <si>
-    <t>Mantap pakde</t>
-  </si>
-  <si>
-    <t>Oke</t>
-  </si>
-  <si>
-    <t>Lumayan membantu disaat YouTube udah nggak bisa digunakan lagi (tak ada update terbaru untuk ponsel yg sudah tidak mendukung)😁 Dan bagusnya lagi, bisa diputar di latar belakang 👍🏻</t>
-  </si>
-  <si>
-    <t>Sejauh ini belum ada iklan sama sekali, ntah di kasih trial atau emang permanen, tapi semoga permanen sih, soalnya di aplikasinya ga ada keterangan trial atau permanen, overall aplikasinya ringan bgt</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>Terlalu banyak iklan dan ketika memutar musik selalu macet</t>
-  </si>
-  <si>
-    <t>Terima kasih atas disajikannya gending-gending Jawa klasik / modern, sangat menghibur dan untuk pelestarian budaya Jawa / Indonesia.</t>
-  </si>
-  <si>
-    <t>mantap jiwa</t>
-  </si>
-  <si>
-    <t>ada iklan ygy.. tapi bagoes..kokszz rawrr... pirittszzz</t>
-  </si>
-  <si>
-    <t>Jangan ditambahkan iklan judi aplikasi sangat bagus</t>
-  </si>
-  <si>
-    <t>Bagus sekali gantine youtop</t>
-  </si>
-  <si>
-    <t>Apk nya mantap dan bisa main di latar belakang</t>
-  </si>
-  <si>
-    <t>Apk yang kayak yuotube dan lebih baik dan canggih</t>
-  </si>
-  <si>
-    <t>fitur fitur di aplikasinya sangat berguna!! Semoga aplikasi ini terus maju</t>
-  </si>
-  <si>
-    <t>Enake ppog aplikasine rang</t>
-  </si>
-  <si>
-    <t>mantap</t>
-  </si>
-  <si>
-    <t>baguss bisa dengerin lagu dan nonton kesukaan favorit kita</t>
-  </si>
-  <si>
-    <t>Istimewa.</t>
-  </si>
-  <si>
-    <t>Terima kasih gotube sudah bisa kasih solusi buat hp yg tidak support youtube lagi.keren developer</t>
-  </si>
-  <si>
-    <t>Aplikasi bagus cuma saya minta tolong tambahkan fitur download agar kita tidak perlu menggunakan kuota/wifi lagi.saya minta tolong sekali lagi tolong tambahkan fitur download terimakasih 🙏🙏.</t>
-  </si>
-  <si>
-    <t>Bagus gk ada iklan</t>
-  </si>
-  <si>
-    <t>Aplikasi ok</t>
-  </si>
-  <si>
-    <t>Bagus banget gtu lhooooh</t>
-  </si>
-  <si>
-    <t>aplikasi yang sangat bagus, saya puas dengan aplikasi GoTube ini tapi sayang harap ada update terbaru lagi dengan aplikasi GoTube terus di tambahin fitur download vidio sama kayak di youtube itu aja pendapat dari saya terimakasih</t>
-  </si>
-  <si>
-    <t>Sangaii bagus</t>
-  </si>
-  <si>
-    <t>Mantapp</t>
-  </si>
-  <si>
-    <t>Bagus,tapi tolong bugnya dikit hehe😅🙏🙏</t>
-  </si>
-  <si>
-    <t>Very Good</t>
-  </si>
-  <si>
-    <t>ini sangat bagus untuk cek sound system</t>
-  </si>
-  <si>
-    <t>Ok sih</t>
-  </si>
-  <si>
-    <t>Mantaab</t>
-  </si>
-  <si>
-    <t>Bagus saya dan anak anak suka</t>
-  </si>
-  <si>
-    <t>Baguss enakkk gak lemot</t>
-  </si>
-  <si>
-    <t>Josss</t>
-  </si>
-  <si>
-    <t>Lebih ok jg lebih nyaman</t>
-  </si>
-  <si>
-    <t>aplikasi ini sangat bagus</t>
-  </si>
-  <si>
-    <t>Bagus tampa takut iklan Gk yesel😜👍</t>
-  </si>
-  <si>
-    <t>Overall bagus banget, malah lebih bagus dari YT prem, bisa lock kualitas video, YT aja gak bisa, Bisa jump video, +/- kecerahan dan suara cuma pake geser, Yt aja gak bisa, kalau bisa saya kasih 10 bintang, langsung saya kasih</t>
-  </si>
-  <si>
-    <t>Mantab</t>
-  </si>
-  <si>
-    <t>Good choice to see the movie</t>
-  </si>
-  <si>
-    <t>Jos pollllll</t>
-  </si>
-  <si>
-    <t>Ok mantap</t>
-  </si>
-  <si>
-    <t>Sangat bagus sekali 😍😍🤩 tapi sayang sekali gak bisa putar sewaktu offline 😓</t>
-  </si>
-  <si>
-    <t>apk nya bagusssss</t>
-  </si>
-  <si>
-    <t>Gotube eror tidak bisa dengerin music sambil main</t>
-  </si>
-  <si>
-    <t>puas nonton di go tube. bebas iklan beneran</t>
-  </si>
-  <si>
-    <t>sangat baik untuk digunakan</t>
-  </si>
-  <si>
-    <t>Bagus Aman dan tidak ada iklan,dan menghemat daya sangat sangat Bagusss</t>
-  </si>
-  <si>
-    <t>Joosss, no iklan</t>
-  </si>
-  <si>
-    <t>Bgus apk nya bs menghibur</t>
-  </si>
-  <si>
-    <t>Gud</t>
-  </si>
-  <si>
-    <t>Tetap asik</t>
-  </si>
-  <si>
-    <t>Semua nya bagus tpi kurang nya GK bisa download 😭😭</t>
-  </si>
-  <si>
-    <t>KEREN$$$</t>
-  </si>
-  <si>
-    <t>Apk bagus</t>
-  </si>
-  <si>
-    <t>T o p</t>
-  </si>
-  <si>
-    <t>Sgt bgus</t>
-  </si>
-  <si>
-    <t>Enak</t>
-  </si>
-  <si>
-    <t>Sebenernya lebih baik kasih 0 karena memang udah iklan nya gak ada tapi udah lama lama aku lihat muncul iklan bahkan lebih parah daripada yotube</t>
-  </si>
-  <si>
-    <t>Suka banget pake go tube sekarang,, Nonton apapun tanpa iklan, puas pokoknya..</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>Lumayan bagus</t>
-  </si>
-  <si>
-    <t>Pakai gotube asik tidak ada iklan kalau lagi karaoke lanjut semoga sukses dan lancar</t>
-  </si>
-  <si>
-    <t>sangat bagus jos</t>
-  </si>
-  <si>
-    <t>Oke mantap</t>
-  </si>
-  <si>
-    <t>Kurangi dong iklannya</t>
-  </si>
-  <si>
-    <t>mantappp banget walaupun baru 3 hari tapi emang bagus banget apknya, gaada iklan,bisa layar pop up semua vidio dah lah biar bintang yg berbicara 😀👍</t>
-  </si>
-  <si>
-    <t>p0konya isdebess tapi bnyakqn iklan kalo mqu kluar mqu login kalo bisq klo lg kluqr mqu bls wa apq miskol pasti iklan klo lgn lg ... hanya itu komen sqqyq kalo bisq nggq usqh qdq ikmqn lg kalo mau log lg abis bls wa mqupun qbis miskol pqsti lebih top mqksih ...</t>
-  </si>
-  <si>
-    <t>Sangat bagus putar musik</t>
-  </si>
-  <si>
-    <t>Excellent</t>
-  </si>
-  <si>
-    <t>Katanya sih non iklan "hoak hoak hoak" Mana iklan judol semua😐</t>
-  </si>
-  <si>
-    <t>Good bgt</t>
-  </si>
-  <si>
-    <t>keren</t>
-  </si>
-  <si>
-    <t>Puas</t>
-  </si>
-  <si>
-    <t>Aplikasi nya sangat bagus, ini sangat rekomendasi banget sih buat yang suka dengerin musik.</t>
-  </si>
-  <si>
-    <t>Saya suka dengan go tube karena saya bisa menemukan lagu kesukaan saya</t>
-  </si>
-  <si>
-    <t>Kenapa harus berlangganan dan kenapa ga bisa unduh vidio dan ga bsa komen saat nnton live makin ribet gotube di update bukan bagus mlah suka ngeleg saat nnton parah</t>
-  </si>
-  <si>
-    <t>sangat membantu</t>
-  </si>
-  <si>
-    <t>Oke siap aplikasinya bagus</t>
-  </si>
-  <si>
-    <t>👍🏼</t>
-  </si>
-  <si>
-    <t>Sangt</t>
-  </si>
-  <si>
-    <t>Bagus bisa nonton tanpa iklan</t>
-  </si>
-  <si>
-    <t>No iklan iklan</t>
-  </si>
-  <si>
-    <t>Aplikasi.a mantap klo nyetel musik bsa d kembali bsa smbil chatingan tau maen game</t>
-  </si>
-  <si>
-    <t>Bagus banget kalian harus download ini sii oke..👍</t>
-  </si>
-  <si>
-    <t>Bagus tidak ada iklan</t>
-  </si>
-  <si>
-    <t>Bagus sekali dan suka dengan laguyaa</t>
-  </si>
-  <si>
-    <t>Awal nya biasa pas di pake rama aku nyalain kok malah iklan soal nya aku nonton loh kok iklan tolong gotube di perbaiki ini ya</t>
-  </si>
-  <si>
-    <t>Baru coba mudah2an cocok</t>
-  </si>
-  <si>
-    <t>Jaringan bagus lewat YouTube tanpa batas ,</t>
-  </si>
-  <si>
-    <t>APLIKASI GAJELAS UDAH IKLAN JUDOL PAS NONTON VIDEO DI MENIT 1 MALAH MUCUL TULISAN COUNT NOT PLAY THIS STREAM ALHASIL GA BISA NONTON VIDIO TOLONG PERBAIKI APLIKASI INI DAN JANGAN MENAMPILKAN UNSUR JUDOL segitu saja keluh kesah ku :)</t>
-  </si>
-  <si>
-    <t>Sangat puas</t>
-  </si>
-  <si>
-    <t>sang at memBantu dismay hpku gk bisa buka youtobe</t>
-  </si>
-  <si>
-    <t>Aku si bintang 5 ya tpi knpa suka eror ya</t>
-  </si>
-  <si>
-    <t>Mantap sekali</t>
-  </si>
-  <si>
-    <t>more comfort without ads between.</t>
-  </si>
-  <si>
-    <t>keren banget aplikasi nya,, saya suka banget..</t>
-  </si>
-  <si>
-    <t>Bagus,aq dpt solusi dikala YouTube ku tak bisa di akses</t>
-  </si>
-  <si>
-    <t>Aplikasi yang bagus sangat mudah digunakan 👍👍👍 ...</t>
-  </si>
-  <si>
-    <t>seru</t>
-  </si>
-  <si>
-    <t>bagus dan optimal</t>
-  </si>
-  <si>
-    <t>kereeen</t>
-  </si>
-  <si>
-    <t>aplikasinya sangat bagus banget tapi iklannya lama banget harusnya diperbaiki</t>
-  </si>
-  <si>
-    <t>Mantap dn bagud</t>
-  </si>
-  <si>
-    <t>Andai bisa di tambah kan download vidio</t>
-  </si>
-  <si>
-    <t>Terbaik</t>
-  </si>
-  <si>
-    <t>Keren🔥🔥</t>
-  </si>
-  <si>
-    <t>Ok👍👌</t>
-  </si>
-  <si>
-    <t>Jos gandos</t>
-  </si>
-  <si>
-    <t>Petani produktif</t>
-  </si>
-  <si>
-    <t>Enaken pokonyamah</t>
-  </si>
-  <si>
-    <t>Sangat puas pkek Go Tube</t>
-  </si>
-  <si>
-    <t>Sangatlah luar biar biasa</t>
-  </si>
-  <si>
-    <t>yg sya bingungkn knpa aplikasi ini stiap vidio yg sya tonton tidak bisa brkomntar di kolom komentar, yg blm sya phami sllu muncul kata:( hrap buat sluran yutube sblum mlakukan tindakan ini ),mhon pnjlasan ny min...</t>
-  </si>
-  <si>
-    <t>Kren</t>
-  </si>
-  <si>
-    <t>Suka aplikasi ini</t>
+    <t>aplikasi ini sangat bagus buat nonton atau dengerin musik lancar tanpa ada iklan</t>
+  </si>
+  <si>
+    <t>hemat !!</t>
+  </si>
+  <si>
+    <t>Bisa menghemat kuota tuk bayar iklan</t>
+  </si>
+  <si>
+    <t>Asyij3 sangat asyik</t>
+  </si>
+  <si>
+    <t>Mantap lancar jaya tanpa iklan...</t>
+  </si>
+  <si>
+    <t>Saya senang dengan aplikasi ini</t>
+  </si>
+  <si>
+    <t>😍</t>
+  </si>
+  <si>
+    <t>pengalaman luar biasa menggunakan GoTube</t>
+  </si>
+  <si>
+    <t>Goooood</t>
+  </si>
+  <si>
+    <t>Aplikasi nya bagus</t>
+  </si>
+  <si>
+    <t>Oke aplikasi keren abis</t>
+  </si>
+  <si>
+    <t>Bagus bangett sukaaa deeh</t>
+  </si>
+  <si>
+    <t>Sagat bagus</t>
+  </si>
+  <si>
+    <t>Tampah iklan gesss</t>
+  </si>
+  <si>
+    <t>Mau lagu tinggal pilih</t>
+  </si>
+  <si>
+    <t>Bagus bisa putar lagu tapi ngga bisa musi reatar</t>
+  </si>
+  <si>
+    <t>Lebih baik</t>
+  </si>
+  <si>
+    <t>sangat cocok untuk yang hobi musik dan video</t>
+  </si>
+  <si>
+    <t>cepat dan mudah</t>
+  </si>
+  <si>
+    <t>Go tube memang mantap gk ad iklan bisa di putr juga dlm mode off...jadi bisa hemat baterai</t>
+  </si>
+  <si>
+    <t>Gotube terbaik banget pokoknya</t>
+  </si>
+  <si>
+    <t>ok bagus</t>
+  </si>
+  <si>
+    <t>👍👍🌺</t>
+  </si>
+  <si>
+    <t>Dengan GoTube semuanya menjadi lebih mudah</t>
+  </si>
+  <si>
+    <t>Pertama kali download sih, dapet iklan dari FB pas di cobain buat sekarang sih lumayan bagus apknya, bisa buka video atau musik tanpa iklan dan juga bisa setel musik di latar belakang juga. Semoga konsisten terus dan syukur bisa lebih baik lagi, untuk saat ini udah ngerasa cukup sih belom ada saran atau keluhan soal apk ini. Mkasih developer buat apknya😊</t>
+  </si>
+  <si>
+    <t>Tolong sistem di perbaiki, asal putar setengah lagi selalu berhenti sendiri terus hilang "sistem error" kesel banget anjir kek gini</t>
+  </si>
+  <si>
+    <t>asyik</t>
+  </si>
+  <si>
+    <t>Wowww</t>
+  </si>
+  <si>
+    <t>mntap youtube go</t>
+  </si>
+  <si>
+    <t>Sangat mantaplh</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1527,7 @@
         <v>206</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>207</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>210</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1626,7 +1626,7 @@
         <v>215</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>219</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>220</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1689,10 +1689,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1700,7 +1700,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1711,7 +1711,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1722,10 +1722,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1733,10 +1733,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1744,7 +1744,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -1755,7 +1755,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -1766,7 +1766,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -1777,10 +1777,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1788,7 +1788,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -1799,7 +1799,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -1810,7 +1810,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1821,7 +1821,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1832,10 +1832,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1843,7 +1843,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -1854,7 +1854,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1865,7 +1865,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1876,7 +1876,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1887,10 +1887,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1898,10 +1898,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1909,10 +1909,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1920,7 +1920,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1931,10 +1931,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1942,10 +1942,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1953,7 +1953,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1964,7 +1964,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1975,10 +1975,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1986,10 +1986,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1997,7 +1997,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -2008,7 +2008,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -2019,7 +2019,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -2030,7 +2030,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -2041,10 +2041,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2052,7 +2052,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -2063,10 +2063,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2085,7 +2085,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -2096,10 +2096,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2107,7 +2107,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -2118,7 +2118,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -2129,10 +2129,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2140,7 +2140,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -2151,10 +2151,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2162,7 +2162,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -2173,7 +2173,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -2184,7 +2184,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -2195,10 +2195,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2206,10 +2206,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2217,7 +2217,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -2228,7 +2228,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -2239,7 +2239,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -2250,7 +2250,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -2261,10 +2261,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2272,7 +2272,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -2283,7 +2283,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -2294,7 +2294,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -2305,7 +2305,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -2316,7 +2316,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -2327,7 +2327,7 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -2338,7 +2338,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -2349,10 +2349,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2360,7 +2360,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -2371,7 +2371,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -2382,7 +2382,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -2393,7 +2393,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -2404,7 +2404,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -2415,7 +2415,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -2426,7 +2426,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -2437,7 +2437,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -2448,10 +2448,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2470,7 +2470,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -2481,7 +2481,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -2492,7 +2492,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -2503,10 +2503,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2514,7 +2514,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -2528,7 +2528,7 @@
         <v>282</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2558,7 +2558,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -2569,7 +2569,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -2580,7 +2580,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -2594,7 +2594,7 @@
         <v>287</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2616,7 +2616,7 @@
         <v>289</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2635,7 +2635,7 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -2646,7 +2646,7 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C107">
         <v>5</v>
@@ -2657,7 +2657,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -2668,7 +2668,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="C109">
         <v>5</v>
@@ -2679,10 +2679,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2690,7 +2690,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="C111">
         <v>5</v>
@@ -2701,10 +2701,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2712,7 +2712,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -2723,7 +2723,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C114">
         <v>5</v>
@@ -2734,7 +2734,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C115">
         <v>5</v>
@@ -2745,7 +2745,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="C116">
         <v>5</v>
@@ -2756,7 +2756,7 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -2767,7 +2767,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C118">
         <v>5</v>
@@ -2778,10 +2778,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2803,7 +2803,7 @@
         <v>301</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2814,7 +2814,7 @@
         <v>302</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2822,7 +2822,7 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -2833,7 +2833,7 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C124">
         <v>5</v>
@@ -2844,10 +2844,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C125">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2855,7 +2855,7 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -2866,7 +2866,7 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -2877,7 +2877,7 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -2888,10 +2888,10 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2899,7 +2899,7 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -2910,7 +2910,7 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -2921,7 +2921,7 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -2932,10 +2932,10 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2943,10 +2943,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2954,7 +2954,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -2965,7 +2965,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>314</v>
+        <v>217</v>
       </c>
       <c r="C136">
         <v>5</v>
@@ -2976,7 +2976,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -3009,10 +3009,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>318</v>
+        <v>206</v>
       </c>
       <c r="C140">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3020,7 +3020,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>319</v>
+        <v>222</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -3031,10 +3031,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3042,10 +3042,10 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3053,10 +3053,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C144">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3064,7 +3064,7 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C145">
         <v>5</v>
@@ -3075,7 +3075,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -3086,7 +3086,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C147">
         <v>5</v>
@@ -3097,7 +3097,7 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C148">
         <v>5</v>
@@ -3108,7 +3108,7 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C149">
         <v>5</v>
@@ -3119,10 +3119,10 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3130,7 +3130,7 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -3141,7 +3141,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>328</v>
+        <v>222</v>
       </c>
       <c r="C152">
         <v>5</v>
@@ -3152,7 +3152,7 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C153">
         <v>5</v>
@@ -3163,10 +3163,10 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3174,7 +3174,7 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>328</v>
       </c>
       <c r="C155">
         <v>5</v>
@@ -3185,7 +3185,7 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C156">
         <v>5</v>
@@ -3196,7 +3196,7 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C157">
         <v>5</v>
@@ -3207,7 +3207,7 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C158">
         <v>5</v>
@@ -3218,7 +3218,7 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>265</v>
+        <v>331</v>
       </c>
       <c r="C159">
         <v>5</v>
@@ -3229,7 +3229,7 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="C160">
         <v>5</v>
@@ -3240,7 +3240,7 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>333</v>
+        <v>206</v>
       </c>
       <c r="C161">
         <v>5</v>
@@ -3251,7 +3251,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C162">
         <v>5</v>
@@ -3262,7 +3262,7 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C163">
         <v>5</v>
@@ -3273,7 +3273,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>234</v>
+        <v>335</v>
       </c>
       <c r="C164">
         <v>5</v>
@@ -3287,7 +3287,7 @@
         <v>336</v>
       </c>
       <c r="C165">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3298,7 +3298,7 @@
         <v>337</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3317,10 +3317,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>223</v>
+        <v>339</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3328,7 +3328,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C169">
         <v>5</v>
@@ -3339,10 +3339,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>340</v>
+        <v>217</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3353,7 +3353,7 @@
         <v>341</v>
       </c>
       <c r="C171">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3372,7 +3372,7 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>343</v>
+        <v>221</v>
       </c>
       <c r="C173">
         <v>5</v>
@@ -3383,7 +3383,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C174">
         <v>5</v>
@@ -3394,7 +3394,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C175">
         <v>5</v>
@@ -3405,7 +3405,7 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C176">
         <v>5</v>
@@ -3416,7 +3416,7 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C177">
         <v>5</v>
@@ -3427,7 +3427,7 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>347</v>
+        <v>206</v>
       </c>
       <c r="C178">
         <v>5</v>
@@ -3438,7 +3438,7 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>214</v>
+        <v>346</v>
       </c>
       <c r="C179">
         <v>5</v>
@@ -3449,7 +3449,7 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C180">
         <v>5</v>
@@ -3460,7 +3460,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C181">
         <v>5</v>
@@ -3471,7 +3471,7 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C182">
         <v>5</v>
@@ -3482,7 +3482,7 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>214</v>
+        <v>350</v>
       </c>
       <c r="C183">
         <v>5</v>
@@ -3493,10 +3493,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="C184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3504,7 +3504,7 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C185">
         <v>5</v>
@@ -3515,7 +3515,7 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C186">
         <v>5</v>
@@ -3526,7 +3526,7 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C187">
         <v>5</v>
@@ -3537,7 +3537,7 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>221</v>
+        <v>355</v>
       </c>
       <c r="C188">
         <v>5</v>
@@ -3548,7 +3548,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C189">
         <v>5</v>
@@ -3559,7 +3559,7 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C190">
         <v>5</v>
@@ -3570,7 +3570,7 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>356</v>
+        <v>217</v>
       </c>
       <c r="C191">
         <v>5</v>
@@ -3581,7 +3581,7 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C192">
         <v>5</v>
@@ -3592,7 +3592,7 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C193">
         <v>5</v>
@@ -3603,7 +3603,7 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>223</v>
+        <v>360</v>
       </c>
       <c r="C194">
         <v>5</v>
@@ -3614,7 +3614,7 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C195">
         <v>4</v>
@@ -3625,7 +3625,7 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C196">
         <v>5</v>
@@ -3636,7 +3636,7 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="C197">
         <v>5</v>
@@ -3647,7 +3647,7 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C198">
         <v>5</v>
@@ -3658,7 +3658,7 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>363</v>
+        <v>221</v>
       </c>
       <c r="C199">
         <v>5</v>

--- a/web/static/data/gotube/data_uji_test.xlsx
+++ b/web/static/data/gotube/data_uji_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="716">
   <si>
     <t>user</t>
   </si>
@@ -25,1093 +25,2143 @@
     <t>rating</t>
   </si>
   <si>
-    <t>Haji Komarudin</t>
-  </si>
-  <si>
-    <t>Ahmad Arifin</t>
-  </si>
-  <si>
-    <t>Sutan Parulian</t>
-  </si>
-  <si>
-    <t>Abah Parman</t>
-  </si>
-  <si>
-    <t>gusti ayu Ratih kemala sari xe.1 / 5</t>
-  </si>
-  <si>
-    <t>Hadi Kelonan</t>
-  </si>
-  <si>
-    <t>Hendri Hariyadi</t>
-  </si>
-  <si>
-    <t>sapcono no</t>
-  </si>
-  <si>
-    <t>Siti Atikah</t>
-  </si>
-  <si>
-    <t>Agus Nanang</t>
-  </si>
-  <si>
-    <t>Surya Yaa</t>
-  </si>
-  <si>
-    <t>Zahra Aniti</t>
-  </si>
-  <si>
-    <t>joker jack</t>
-  </si>
-  <si>
-    <t>Hanafi</t>
-  </si>
-  <si>
-    <t>Bagas Asah</t>
-  </si>
-  <si>
-    <t>Sus Suswanto</t>
-  </si>
-  <si>
-    <t>Santang Tang</t>
-  </si>
-  <si>
-    <t>Umar Hamzah</t>
-  </si>
-  <si>
-    <t>Evi susanti</t>
-  </si>
-  <si>
-    <t>Hana Wati</t>
-  </si>
-  <si>
-    <t>Muhammad Arsyad</t>
-  </si>
-  <si>
-    <t>Raza Purba boss</t>
-  </si>
-  <si>
-    <t>M Ferdi yansah</t>
-  </si>
-  <si>
-    <t>Ghazyfahtu Razaq</t>
-  </si>
-  <si>
-    <t>Neng Sobariah</t>
-  </si>
-  <si>
-    <t>Ian S</t>
-  </si>
-  <si>
-    <t>Yusni Dwi Kurniawan</t>
-  </si>
-  <si>
-    <t>endang sofyan</t>
-  </si>
-  <si>
-    <t>A S</t>
-  </si>
-  <si>
-    <t>Luhde Kariasih</t>
-  </si>
-  <si>
-    <t>April Yanto</t>
-  </si>
-  <si>
-    <t>Lukman Bule</t>
-  </si>
-  <si>
-    <t>birin sobirin</t>
-  </si>
-  <si>
-    <t>bowo tehnik</t>
-  </si>
-  <si>
-    <t>Hariadi Nasier</t>
-  </si>
-  <si>
-    <t>Andre Andre zulhelmi</t>
-  </si>
-  <si>
-    <t>Endoh Saja</t>
-  </si>
-  <si>
-    <t>Dymas Adika pratama</t>
-  </si>
-  <si>
-    <t>Fadli Yink</t>
-  </si>
-  <si>
-    <t>Rian Sp3</t>
-  </si>
-  <si>
-    <t>Haris Com</t>
-  </si>
-  <si>
-    <t>Tantri Auliazahro</t>
-  </si>
-  <si>
-    <t>Alon Alone</t>
-  </si>
-  <si>
-    <t>Slamet Bachtiar</t>
-  </si>
-  <si>
-    <t>Dewi Naezura</t>
-  </si>
-  <si>
-    <t>Muhamad Idrus</t>
-  </si>
-  <si>
-    <t>adrian Pratama</t>
-  </si>
-  <si>
-    <t>Samsung J5</t>
-  </si>
-  <si>
-    <t>DUREN SAWET</t>
-  </si>
-  <si>
-    <t>Cuwe Enew</t>
-  </si>
-  <si>
-    <t>Raya Rifa</t>
-  </si>
-  <si>
-    <t>Raihan Kp</t>
-  </si>
-  <si>
-    <t>Agus Saleh</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AMNAN</t>
-  </si>
-  <si>
-    <t>dea mirin</t>
-  </si>
-  <si>
-    <t>Suci Dian Permatasari</t>
-  </si>
-  <si>
-    <t>Dody Utomo</t>
-  </si>
-  <si>
-    <t>Cucu Kurniawan</t>
-  </si>
-  <si>
-    <t>Syaripudin Rohil</t>
-  </si>
-  <si>
-    <t>Indah Nurjanah</t>
-  </si>
-  <si>
-    <t>M. Naufal</t>
-  </si>
-  <si>
-    <t>Atom Mi</t>
-  </si>
-  <si>
-    <t>Alif Wibisono</t>
-  </si>
-  <si>
-    <t>Siti Umroh</t>
-  </si>
-  <si>
-    <t>Surya Jaya Wicaksono</t>
-  </si>
-  <si>
-    <t>Unen Inen</t>
-  </si>
-  <si>
-    <t>ahmad samsul arifin arifin</t>
-  </si>
-  <si>
-    <t>Hy Ny</t>
-  </si>
-  <si>
-    <t>Yuda Pratama putra</t>
-  </si>
-  <si>
-    <t>Yulita Anggara</t>
-  </si>
-  <si>
-    <t>Kholilah Kholifah</t>
-  </si>
-  <si>
-    <t>hussain Mussa</t>
-  </si>
-  <si>
-    <t>Miko Abah</t>
-  </si>
-  <si>
-    <t>Herinur Nur</t>
-  </si>
-  <si>
-    <t>Ryu Ken</t>
-  </si>
-  <si>
-    <t>Lilis Maemunah</t>
-  </si>
-  <si>
-    <t>Hasby Banjar</t>
-  </si>
-  <si>
-    <t>Haykal Azril</t>
-  </si>
-  <si>
-    <t>Saprol Saprol</t>
-  </si>
-  <si>
-    <t>Hendra Permana</t>
-  </si>
-  <si>
-    <t>Muslipah Jambi</t>
-  </si>
-  <si>
-    <t>Lukman Hakim</t>
-  </si>
-  <si>
-    <t>Khairul Arifandi</t>
-  </si>
-  <si>
-    <t>ArkanSaid Ramadhan</t>
-  </si>
-  <si>
-    <t>Aisayh Nor</t>
-  </si>
-  <si>
-    <t>puji suryo</t>
-  </si>
-  <si>
-    <t>dani murdani</t>
-  </si>
-  <si>
-    <t>Liee Shumaqer</t>
-  </si>
-  <si>
-    <t>Yuliana Banturino</t>
-  </si>
-  <si>
-    <t>Rizky Alfian</t>
-  </si>
-  <si>
-    <t>Rifki Ramadhan</t>
-  </si>
-  <si>
-    <t>Atim Namina</t>
-  </si>
-  <si>
-    <t>goodmorning coffee</t>
-  </si>
-  <si>
-    <t>Mohan Fitriani izzan</t>
-  </si>
-  <si>
-    <t>Rafael Chandra</t>
-  </si>
-  <si>
-    <t>Samira Mira</t>
-  </si>
-  <si>
-    <t>Liasan Liasan</t>
-  </si>
-  <si>
-    <t>Ahmadsahdan</t>
-  </si>
-  <si>
-    <t>Goyang Aya</t>
-  </si>
-  <si>
-    <t>Rosandita Siregar</t>
-  </si>
-  <si>
-    <t>Samsul Raditya</t>
-  </si>
-  <si>
-    <t>Mambaul Ghufron</t>
-  </si>
-  <si>
-    <t>Alvin Keren</t>
-  </si>
-  <si>
-    <t>Al Dasthank</t>
-  </si>
-  <si>
-    <t>syaiful umam</t>
-  </si>
-  <si>
-    <t>Mis Muri</t>
-  </si>
-  <si>
-    <t>bagok bagok</t>
-  </si>
-  <si>
-    <t>Ryanto Yanto</t>
-  </si>
-  <si>
-    <t>Djoko Purwanto</t>
-  </si>
-  <si>
-    <t>Cepi Rahayu</t>
-  </si>
-  <si>
-    <t>Didin Samsudin</t>
-  </si>
-  <si>
-    <t>Achmad Farijul</t>
-  </si>
-  <si>
-    <t>Alawiyah Azijah</t>
-  </si>
-  <si>
-    <t>FERI. GENDOET</t>
-  </si>
-  <si>
-    <t>asyudi</t>
-  </si>
-  <si>
-    <t>Gugleidd</t>
-  </si>
-  <si>
-    <t>sugiatno sugi</t>
-  </si>
-  <si>
-    <t>Batir cilik</t>
-  </si>
-  <si>
-    <t>mang odading</t>
-  </si>
-  <si>
-    <t>Firman Syah</t>
-  </si>
-  <si>
-    <t>Tolet Saksena</t>
-  </si>
-  <si>
-    <t>Ade nasir Faroji</t>
-  </si>
-  <si>
-    <t>Rival Yanti</t>
-  </si>
-  <si>
-    <t>Susila wati</t>
-  </si>
-  <si>
-    <t>Nauval Cahya</t>
-  </si>
-  <si>
-    <t>Bakwan Goreng</t>
-  </si>
-  <si>
-    <t>Upu Aisyah</t>
-  </si>
-  <si>
-    <t>dicky Aja</t>
-  </si>
-  <si>
-    <t>Kadarisman Kadarisman</t>
-  </si>
-  <si>
-    <t>Nadhir Rina</t>
-  </si>
-  <si>
-    <t>wiyantoyanto Wiyantoyanto</t>
-  </si>
-  <si>
-    <t>gragal 535</t>
-  </si>
-  <si>
-    <t>putra dragunov</t>
-  </si>
-  <si>
-    <t>Aldi Muhamad rizky linardi</t>
-  </si>
-  <si>
-    <t>Renita Putriyani</t>
-  </si>
-  <si>
-    <t>Riyan Komeng</t>
-  </si>
-  <si>
-    <t>Hanaji Naji</t>
-  </si>
-  <si>
-    <t>ribuka kreku</t>
-  </si>
-  <si>
-    <t>Mukasih haryono</t>
-  </si>
-  <si>
-    <t>Ana Yati</t>
-  </si>
-  <si>
-    <t>Super Man</t>
-  </si>
-  <si>
-    <t>Fandi Alatas</t>
-  </si>
-  <si>
-    <t>Abdur Rohim</t>
-  </si>
-  <si>
-    <t>ANNYSHA CHAN</t>
-  </si>
-  <si>
-    <t>Ranto Parulian</t>
-  </si>
-  <si>
-    <t>Lo Karyana</t>
-  </si>
-  <si>
-    <t>Fikrie Fikriye</t>
-  </si>
-  <si>
-    <t>ALISYAHDI LEMBONG</t>
-  </si>
-  <si>
-    <t>Maryati Zaenal</t>
-  </si>
-  <si>
-    <t>Putra leo</t>
-  </si>
-  <si>
-    <t>Amira Ika</t>
-  </si>
-  <si>
-    <t>Aqmal Syahbani</t>
-  </si>
-  <si>
-    <t>Dwi Adi</t>
-  </si>
-  <si>
-    <t>Tommy baskhara</t>
-  </si>
-  <si>
-    <t>Moh Freidi Musran</t>
-  </si>
-  <si>
-    <t>YT . HP KENTANGERS</t>
-  </si>
-  <si>
-    <t>Mulyono Pratama</t>
-  </si>
-  <si>
-    <t>daniel</t>
-  </si>
-  <si>
-    <t>Husen Aja</t>
-  </si>
-  <si>
-    <t>Muhammad Gemehsodo</t>
-  </si>
-  <si>
-    <t>Akhir Zaman</t>
-  </si>
-  <si>
-    <t>Hunlie 27</t>
-  </si>
-  <si>
-    <t>M Fadhil</t>
-  </si>
-  <si>
-    <t>Nur'aeni wargabinangun</t>
-  </si>
-  <si>
-    <t>Janun 2024</t>
-  </si>
-  <si>
-    <t>Hero Linus</t>
-  </si>
-  <si>
-    <t>Sarbani Bani</t>
-  </si>
-  <si>
-    <t>Purwoko Ekonugroho</t>
-  </si>
-  <si>
-    <t>Ashalina Jeasy</t>
-  </si>
-  <si>
-    <t>Rahmad Dava</t>
-  </si>
-  <si>
-    <t>Surya Dinatha</t>
-  </si>
-  <si>
-    <t>Adib Khancel</t>
-  </si>
-  <si>
-    <t>andri bastian</t>
-  </si>
-  <si>
-    <t>Rizki Akbar Maulana</t>
-  </si>
-  <si>
-    <t>Harun Purnomo</t>
-  </si>
-  <si>
-    <t>Jawa Pos</t>
-  </si>
-  <si>
-    <t>Ruli Aslam</t>
-  </si>
-  <si>
-    <t>Baseng Aja</t>
-  </si>
-  <si>
-    <t>Asifa Nur fadhilah</t>
-  </si>
-  <si>
-    <t>Danang Reksoaji</t>
-  </si>
-  <si>
-    <t>Orang gila Orang gila</t>
-  </si>
-  <si>
-    <t>Nurhayati Yati</t>
-  </si>
-  <si>
-    <t>Manceman Man</t>
-  </si>
-  <si>
-    <t>Arwan Kurniawan</t>
-  </si>
-  <si>
-    <t>Imam Syafa'at</t>
-  </si>
-  <si>
-    <t>Ady Saputra</t>
-  </si>
-  <si>
-    <t>Abi Arya</t>
-  </si>
-  <si>
-    <t>Akbar Aprizal</t>
-  </si>
-  <si>
-    <t>Entis Sutisna</t>
-  </si>
-  <si>
-    <t>Jhon arema</t>
-  </si>
-  <si>
-    <t>HiDayatullah Ayat</t>
-  </si>
-  <si>
-    <t>Slamet Protokol</t>
-  </si>
-  <si>
-    <t>Pen Dozza</t>
-  </si>
-  <si>
-    <t>Ari Sugianto</t>
-  </si>
-  <si>
-    <t>Edy Susanto</t>
-  </si>
-  <si>
-    <t>Sian Turi (Ron)</t>
-  </si>
-  <si>
-    <t>Evan Supriadi</t>
-  </si>
-  <si>
-    <t>Dwi raya Ainun fitri</t>
-  </si>
-  <si>
-    <t>Hardi Hardi</t>
-  </si>
-  <si>
-    <t>Seftiani Seftiani</t>
+    <t>Andika Satria</t>
+  </si>
+  <si>
+    <t>Ria Tik</t>
+  </si>
+  <si>
+    <t>Osshy sely Lanny</t>
+  </si>
+  <si>
+    <t>Fitri Kartika Rahayu</t>
+  </si>
+  <si>
+    <t>Sugianto Adhiputro</t>
+  </si>
+  <si>
+    <t>Sam Sultan</t>
+  </si>
+  <si>
+    <t>Rindori Kitekito</t>
+  </si>
+  <si>
+    <t>Narti Narti</t>
+  </si>
+  <si>
+    <t>suro Tyo</t>
+  </si>
+  <si>
+    <t>Radit Novansyah</t>
+  </si>
+  <si>
+    <t>dhanu irwansyah</t>
+  </si>
+  <si>
+    <t>Singgit jpr</t>
+  </si>
+  <si>
+    <t>Mukhtar Fathir</t>
+  </si>
+  <si>
+    <t>Dewarrq</t>
+  </si>
+  <si>
+    <t>Mie Kotabaru</t>
+  </si>
+  <si>
+    <t>Nur Yadi</t>
+  </si>
+  <si>
+    <t>muhammad baday</t>
+  </si>
+  <si>
+    <t>Muhamadnasihin</t>
+  </si>
+  <si>
+    <t>Dedy Sudedih</t>
+  </si>
+  <si>
+    <t>Aryo Marwah92 Channel</t>
+  </si>
+  <si>
+    <t>REN MILVIN</t>
+  </si>
+  <si>
+    <t>Dinanti Thy</t>
+  </si>
+  <si>
+    <t>Zulkifly Johan</t>
+  </si>
+  <si>
+    <t>Naurah Nauren</t>
+  </si>
+  <si>
+    <t>doyok human</t>
+  </si>
+  <si>
+    <t>Intan Latifah</t>
+  </si>
+  <si>
+    <t>Hudhy 883</t>
+  </si>
+  <si>
+    <t>Najiba Karima</t>
+  </si>
+  <si>
+    <t>sunaryo RA</t>
+  </si>
+  <si>
+    <t>Eric Jawara</t>
+  </si>
+  <si>
+    <t>MUSLEH Mus</t>
+  </si>
+  <si>
+    <t>berkah channel</t>
+  </si>
+  <si>
+    <t>Endangpraba Daniar</t>
+  </si>
+  <si>
+    <t>Furqon Furqon</t>
+  </si>
+  <si>
+    <t>Liora Christabel Thivani Soru</t>
+  </si>
+  <si>
+    <t>Nur Hadi</t>
+  </si>
+  <si>
+    <t>Khyki Gondrong</t>
+  </si>
+  <si>
+    <t>FZO STUDIO</t>
+  </si>
+  <si>
+    <t>Mochamed Jalaludien</t>
+  </si>
+  <si>
+    <t>Bulan Darliska</t>
+  </si>
+  <si>
+    <t>Roni</t>
+  </si>
+  <si>
+    <t>mat brilian</t>
+  </si>
+  <si>
+    <t>Rendi Surya</t>
+  </si>
+  <si>
+    <t>Naqueenza Hera</t>
+  </si>
+  <si>
+    <t>Nazwa Khairotul muharomah</t>
+  </si>
+  <si>
+    <t>Ilham Maulana</t>
+  </si>
+  <si>
+    <t>adelina rossa</t>
+  </si>
+  <si>
+    <t>Nani</t>
+  </si>
+  <si>
+    <t>Amat Sukardi</t>
+  </si>
+  <si>
+    <t>ADITGG33 ADIT</t>
+  </si>
+  <si>
+    <t>Alex Karsah</t>
+  </si>
+  <si>
+    <t>Sate Jaya</t>
+  </si>
+  <si>
+    <t>Pencari Keadilaan</t>
+  </si>
+  <si>
+    <t>Suha Benjos</t>
+  </si>
+  <si>
+    <t>YusufHan1945HanKarya</t>
+  </si>
+  <si>
+    <t>Hidayah</t>
+  </si>
+  <si>
+    <t>Yanto Bae</t>
+  </si>
+  <si>
+    <t>Aris 12</t>
+  </si>
+  <si>
+    <t>Rita Thea</t>
+  </si>
+  <si>
+    <t>Ajeng Yuliawati</t>
+  </si>
+  <si>
+    <t>Pak Wanto</t>
+  </si>
+  <si>
+    <t>Aleng Ikmal</t>
+  </si>
+  <si>
+    <t>Riskanti Arempeley</t>
+  </si>
+  <si>
+    <t>Krisbian Toro</t>
+  </si>
+  <si>
+    <t>Asfar Sahali</t>
+  </si>
+  <si>
+    <t>Alberto Sihaloho</t>
+  </si>
+  <si>
+    <t>Yakul pro</t>
+  </si>
+  <si>
+    <t>Azkiazka Azka</t>
+  </si>
+  <si>
+    <t>Suaib Suaib</t>
+  </si>
+  <si>
+    <t>Jokocah tejo</t>
+  </si>
+  <si>
+    <t>Wahyu Sipa</t>
+  </si>
+  <si>
+    <t>Hasan Basri</t>
+  </si>
+  <si>
+    <t>Arshaka Aditya</t>
+  </si>
+  <si>
+    <t>Ferdy Febriana Putra</t>
+  </si>
+  <si>
+    <t>Oemah Triplek</t>
+  </si>
+  <si>
+    <t>AG AS</t>
+  </si>
+  <si>
+    <t>Joni Arie</t>
+  </si>
+  <si>
+    <t>Cantikaharyani Haryani</t>
+  </si>
+  <si>
+    <t>Murjani 80</t>
+  </si>
+  <si>
+    <t>Diki Apriyanto</t>
+  </si>
+  <si>
+    <t>Rizky Smile</t>
+  </si>
+  <si>
+    <t>novandi perdana</t>
+  </si>
+  <si>
+    <t>QUEEN CLARY VIOLETTA</t>
+  </si>
+  <si>
+    <t>sudikno mujiati</t>
+  </si>
+  <si>
+    <t>Sedayu Anugrah</t>
+  </si>
+  <si>
+    <t>Misbah Notorejo</t>
+  </si>
+  <si>
+    <t>Moh Zaki</t>
+  </si>
+  <si>
+    <t>Jhony Jhony</t>
+  </si>
+  <si>
+    <t>Sumardi Latama</t>
+  </si>
+  <si>
+    <t>Husnul Khotimah</t>
+  </si>
+  <si>
+    <t>andreasws</t>
+  </si>
+  <si>
+    <t>Sere Tampubolon</t>
+  </si>
+  <si>
+    <t>Arya Adinata</t>
+  </si>
+  <si>
+    <t>eko aribowo</t>
+  </si>
+  <si>
+    <t>Yani Muliani</t>
+  </si>
+  <si>
+    <t>Iwan Sanusi</t>
+  </si>
+  <si>
+    <t>Adrian Soby</t>
+  </si>
+  <si>
+    <t>Gabriel Firman</t>
+  </si>
+  <si>
+    <t>AUDRELIAKOROLULU</t>
+  </si>
+  <si>
+    <t>putri ningsih</t>
+  </si>
+  <si>
+    <t>Tarabah 11</t>
+  </si>
+  <si>
+    <t>NYAI IPA NYAI IPA</t>
+  </si>
+  <si>
+    <t>Melky Jabi</t>
+  </si>
+  <si>
+    <t>Ivan Wati</t>
+  </si>
+  <si>
+    <t>ERNA SUSILAWATI</t>
+  </si>
+  <si>
+    <t>Nuradi Telaumbanua</t>
+  </si>
+  <si>
+    <t>Dedik Tyasmoko</t>
+  </si>
+  <si>
+    <t>Susi Adit</t>
+  </si>
+  <si>
+    <t>Robet Uyest</t>
+  </si>
+  <si>
+    <t>Zar Udin</t>
+  </si>
+  <si>
+    <t>Melika Mahira</t>
+  </si>
+  <si>
+    <t>paud tunas pertiwi</t>
+  </si>
+  <si>
+    <t>Mahdun M</t>
+  </si>
+  <si>
+    <t>Muhtar Mufid</t>
+  </si>
+  <si>
+    <t>Ahmad Fatur</t>
+  </si>
+  <si>
+    <t>Oppo A57</t>
+  </si>
+  <si>
+    <t>Alo Halimah</t>
+  </si>
+  <si>
+    <t>VinoAgus Pratama</t>
+  </si>
+  <si>
+    <t>Cahaya hati</t>
+  </si>
+  <si>
+    <t>Pelaut Indonesia</t>
+  </si>
+  <si>
+    <t>Beny Benjol</t>
+  </si>
+  <si>
+    <t>Saty Saty</t>
+  </si>
+  <si>
+    <t>Ria Agustina</t>
+  </si>
+  <si>
+    <t>Salsa Bila</t>
+  </si>
+  <si>
+    <t>Gladies Tumbelaka</t>
+  </si>
+  <si>
+    <t>adi gemox's</t>
+  </si>
+  <si>
+    <t>jalal pariz</t>
+  </si>
+  <si>
+    <t>Vitalove Vitamin</t>
+  </si>
+  <si>
+    <t>wedos gembels69</t>
+  </si>
+  <si>
+    <t>Piyah Cirebon</t>
+  </si>
+  <si>
+    <t>Gamerall Raggasakti</t>
+  </si>
+  <si>
+    <t>Najwa Salsabila</t>
+  </si>
+  <si>
+    <t>Imawati Wati</t>
+  </si>
+  <si>
+    <t>Siti Atika</t>
+  </si>
+  <si>
+    <t>Nia Hera</t>
+  </si>
+  <si>
+    <t>Tri Putra</t>
+  </si>
+  <si>
+    <t>Yakup Fitrih</t>
+  </si>
+  <si>
+    <t>Eman Kurupuk</t>
+  </si>
+  <si>
+    <t>Tryiz Go</t>
+  </si>
+  <si>
+    <t>Siti Masriah</t>
+  </si>
+  <si>
+    <t>Azi Bimantara</t>
+  </si>
+  <si>
+    <t>Merry 446</t>
+  </si>
+  <si>
+    <t>Benny Manik</t>
+  </si>
+  <si>
+    <t>Yustika Dewi</t>
+  </si>
+  <si>
+    <t>Pandu winata Pandu</t>
+  </si>
+  <si>
+    <t>Rasta Best</t>
+  </si>
+  <si>
+    <t>Mardi Yanto</t>
+  </si>
+  <si>
+    <t>Ali Mahmudi</t>
+  </si>
+  <si>
+    <t>Harapan Terang Motor Malinau</t>
+  </si>
+  <si>
+    <t>VivoY27</t>
+  </si>
+  <si>
+    <t>indra mangatas hutagaolgaol</t>
+  </si>
+  <si>
+    <t>Ahmad Fuadi</t>
+  </si>
+  <si>
+    <t>Intan Permata sari</t>
+  </si>
+  <si>
+    <t>Lucy Kuswara</t>
+  </si>
+  <si>
+    <t>Amin Prayitno</t>
+  </si>
+  <si>
+    <t>Lya. Z</t>
+  </si>
+  <si>
+    <t>Ketut Sujana</t>
+  </si>
+  <si>
+    <t>Hesti Pusposari</t>
+  </si>
+  <si>
+    <t>Luis alex Sandro</t>
+  </si>
+  <si>
+    <t>Yofa Yofa</t>
+  </si>
+  <si>
+    <t>Yoza 07</t>
+  </si>
+  <si>
+    <t>Samsul Aja</t>
+  </si>
+  <si>
+    <t>rahmat ajah</t>
+  </si>
+  <si>
+    <t>Reno Alvaro</t>
+  </si>
+  <si>
+    <t>Mario Sarwiyoga</t>
+  </si>
+  <si>
+    <t>Dem see</t>
+  </si>
+  <si>
+    <t>Way On Cam</t>
+  </si>
+  <si>
+    <t>Putra Tungkal</t>
+  </si>
+  <si>
+    <t>ridho Pjtta</t>
+  </si>
+  <si>
+    <t>Agung Nugraha</t>
+  </si>
+  <si>
+    <t>Nur Jannah</t>
+  </si>
+  <si>
+    <t>Adi Prasetyo</t>
+  </si>
+  <si>
+    <t>yudi cemplik</t>
+  </si>
+  <si>
+    <t>Agung Prakoso</t>
+  </si>
+  <si>
+    <t>jhohan Kurneti</t>
+  </si>
+  <si>
+    <t>Saef fulloh</t>
+  </si>
+  <si>
+    <t>Cantika Davinca Music</t>
+  </si>
+  <si>
+    <t>Anneke Amarisa</t>
+  </si>
+  <si>
+    <t>dewi cahaya ningsih</t>
+  </si>
+  <si>
+    <t>Hairul Hairul al jam jam</t>
+  </si>
+  <si>
+    <t>satriaalif12</t>
+  </si>
+  <si>
+    <t>Komang Bagus putra ariawan</t>
+  </si>
+  <si>
+    <t>Rendi Piran</t>
+  </si>
+  <si>
+    <t>Sampuji Sampuji</t>
+  </si>
+  <si>
+    <t>Iwan Putra Wardhana</t>
+  </si>
+  <si>
+    <t>zaearif 17</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Azha Azizah</t>
+  </si>
+  <si>
+    <t>Qomariyah 66</t>
+  </si>
+  <si>
+    <t>angga fran</t>
+  </si>
+  <si>
+    <t>Ryan Pasaribu</t>
+  </si>
+  <si>
+    <t>Ahmad Faris</t>
+  </si>
+  <si>
+    <t>pak sugi</t>
+  </si>
+  <si>
+    <t>Heri Ady</t>
+  </si>
+  <si>
+    <t>Elkana Novelio</t>
+  </si>
+  <si>
+    <t>Riri</t>
+  </si>
+  <si>
+    <t>Ang ipung</t>
+  </si>
+  <si>
+    <t>Dekatdekatlah Denganku</t>
+  </si>
+  <si>
+    <t>Mino Warsono</t>
+  </si>
+  <si>
+    <t>Clear minion 92</t>
+  </si>
+  <si>
+    <t>Hyou Gha</t>
+  </si>
+  <si>
+    <t>Eko Nam</t>
+  </si>
+  <si>
+    <t>Aqwila</t>
+  </si>
+  <si>
+    <t>MYusupAl farizqi</t>
+  </si>
+  <si>
+    <t>Muhammad Fikri</t>
+  </si>
+  <si>
+    <t>Aprialdi Aprialdi</t>
+  </si>
+  <si>
+    <t>Parung Dago</t>
+  </si>
+  <si>
+    <t>YUSNIA KAHARUDDIN</t>
+  </si>
+  <si>
+    <t>Azwar Anas</t>
+  </si>
+  <si>
+    <t>ŵònk biàsà</t>
+  </si>
+  <si>
+    <t>atri polliy</t>
+  </si>
+  <si>
+    <t>NonggSkuyyMer 207</t>
+  </si>
+  <si>
+    <t>Dedi Yusuf</t>
+  </si>
+  <si>
+    <t>Ipan sa Mili</t>
+  </si>
+  <si>
+    <t>Ahmad Igana</t>
+  </si>
+  <si>
+    <t>Yan To</t>
+  </si>
+  <si>
+    <t>Put Put</t>
+  </si>
+  <si>
+    <t>Dika Z</t>
+  </si>
+  <si>
+    <t>Dika Akbar</t>
+  </si>
+  <si>
+    <t>D4M M4n</t>
+  </si>
+  <si>
+    <t>Om Kufret</t>
+  </si>
+  <si>
+    <t>Sarip Jon</t>
+  </si>
+  <si>
+    <t>Zafira 2024</t>
+  </si>
+  <si>
+    <t>Nur Isnaeni</t>
+  </si>
+  <si>
+    <t>Pika Tutupoho</t>
+  </si>
+  <si>
+    <t>Dikie Alexis</t>
+  </si>
+  <si>
+    <t>Sri Utari</t>
+  </si>
+  <si>
+    <t>Yonnie Juliand</t>
+  </si>
+  <si>
+    <t>Andri Pratama</t>
+  </si>
+  <si>
+    <t>arjuna dian</t>
+  </si>
+  <si>
+    <t>Setyo adi Utomo</t>
+  </si>
+  <si>
+    <t>M Sulaiman</t>
+  </si>
+  <si>
+    <t>Den mas roy Official</t>
+  </si>
+  <si>
+    <t>Kristo Kurniawan</t>
+  </si>
+  <si>
+    <t>Umet qulsum</t>
+  </si>
+  <si>
+    <t>Delisa Amellia</t>
+  </si>
+  <si>
+    <t>Tri Ari Brata</t>
+  </si>
+  <si>
+    <t>Afriansahrefanalferdianrian Refanaja rian</t>
+  </si>
+  <si>
+    <t>Aris Aris</t>
+  </si>
+  <si>
+    <t>Nimemo Marlboro</t>
+  </si>
+  <si>
+    <t>Galang Bulan</t>
+  </si>
+  <si>
+    <t>Zakiya Latita</t>
+  </si>
+  <si>
+    <t>Callista Salsabila</t>
+  </si>
+  <si>
+    <t>Agus Yoga</t>
+  </si>
+  <si>
+    <t>Sanal Daha</t>
+  </si>
+  <si>
+    <t>Ang Kasa</t>
+  </si>
+  <si>
+    <t>Darmawan Darmawan</t>
+  </si>
+  <si>
+    <t>Suhendi hendi</t>
+  </si>
+  <si>
+    <t>AFIQA CANTYA AYU ACHA</t>
+  </si>
+  <si>
+    <t>Bandi Romeo</t>
+  </si>
+  <si>
+    <t>emir rio</t>
+  </si>
+  <si>
+    <t>Ricky Trisaputra</t>
+  </si>
+  <si>
+    <t>Hendri Awanta Keliat</t>
+  </si>
+  <si>
+    <t>Reder Satboy</t>
+  </si>
+  <si>
+    <t>Dava Dava</t>
+  </si>
+  <si>
+    <t>REZA</t>
+  </si>
+  <si>
+    <t>Asep Randy</t>
+  </si>
+  <si>
+    <t>Isti Wulandari</t>
+  </si>
+  <si>
+    <t>Ferdinan Tobing</t>
+  </si>
+  <si>
+    <t>Malik Elzoi</t>
+  </si>
+  <si>
+    <t>Lord ZR</t>
+  </si>
+  <si>
+    <t>Anik Asmarani</t>
+  </si>
+  <si>
+    <t>Nayla Desiana</t>
+  </si>
+  <si>
+    <t>Yudi Ariansyah</t>
+  </si>
+  <si>
+    <t>Ipul Gokil</t>
+  </si>
+  <si>
+    <t>Hasan Hosen</t>
+  </si>
+  <si>
+    <t>Sopian Maulana</t>
+  </si>
+  <si>
+    <t>Wawan Aryanto</t>
+  </si>
+  <si>
+    <t>bayu segoro</t>
+  </si>
+  <si>
+    <t>Masruroh Mustanginah</t>
+  </si>
+  <si>
+    <t>Dek Dika</t>
+  </si>
+  <si>
+    <t>Siddiq Lubis</t>
+  </si>
+  <si>
+    <t>Abdul Nasir</t>
+  </si>
+  <si>
+    <t>Adhy cah bumen</t>
+  </si>
+  <si>
+    <t>Parmin</t>
+  </si>
+  <si>
+    <t>Albi Faeza</t>
+  </si>
+  <si>
+    <t>Edi Putra</t>
+  </si>
+  <si>
+    <t>ALYA Nur kamilah Alya</t>
+  </si>
+  <si>
+    <t>Diana Kholifah</t>
+  </si>
+  <si>
+    <t>Aril Boy</t>
+  </si>
+  <si>
+    <t>Sander Milliand</t>
+  </si>
+  <si>
+    <t>abdul wadud</t>
+  </si>
+  <si>
+    <t>Mamak Kece</t>
+  </si>
+  <si>
+    <t>Lina Husaini</t>
+  </si>
+  <si>
+    <t>Afndy Haerul afandy</t>
+  </si>
+  <si>
+    <t>Muhdar Hidayat</t>
+  </si>
+  <si>
+    <t>Widodo Algebang</t>
+  </si>
+  <si>
+    <t>Lare Ndeso</t>
+  </si>
+  <si>
+    <t>ifin roses</t>
+  </si>
+  <si>
+    <t>Ik Mal</t>
+  </si>
+  <si>
+    <t>Suhar Iyadi</t>
+  </si>
+  <si>
+    <t>Farid Aja</t>
+  </si>
+  <si>
+    <t>Adang Taryono</t>
+  </si>
+  <si>
+    <t>Kresna Tegar</t>
+  </si>
+  <si>
+    <t>Abdu Rohman</t>
+  </si>
+  <si>
+    <t>A17k Hitam</t>
+  </si>
+  <si>
+    <t>putra</t>
+  </si>
+  <si>
+    <t>Brina Ve</t>
+  </si>
+  <si>
+    <t>Deli Ponsel</t>
+  </si>
+  <si>
+    <t>Tatik Sukarti</t>
+  </si>
+  <si>
+    <t>Rizki Akbar</t>
+  </si>
+  <si>
+    <t>Apip Pudinpaujan</t>
+  </si>
+  <si>
+    <t>MUSTAQIM MS</t>
+  </si>
+  <si>
+    <t>Tapsir Rider</t>
+  </si>
+  <si>
+    <t>Aulia Rasyiddah</t>
+  </si>
+  <si>
+    <t>T Danang</t>
+  </si>
+  <si>
+    <t>Aqila Qila</t>
+  </si>
+  <si>
+    <t>Much Alim</t>
+  </si>
+  <si>
+    <t>oyokuylah kuylah</t>
+  </si>
+  <si>
+    <t>Yadi Supriadi</t>
+  </si>
+  <si>
+    <t>Mohammad Aqila</t>
+  </si>
+  <si>
+    <t>saepul rohman</t>
+  </si>
+  <si>
+    <t>Samsudi Priyanto</t>
+  </si>
+  <si>
+    <t>iwal Zohru</t>
+  </si>
+  <si>
+    <t>Saka Elay</t>
+  </si>
+  <si>
+    <t>Dirga Khim</t>
+  </si>
+  <si>
+    <t>ALLAHUYAHAYYU YAWITRU</t>
+  </si>
+  <si>
+    <t>Pebi Aira</t>
+  </si>
+  <si>
+    <t>Vin Vin</t>
+  </si>
+  <si>
+    <t>herman firmansyah</t>
+  </si>
+  <si>
+    <t>Gapur Rina</t>
+  </si>
+  <si>
+    <t>Eka Indrawati</t>
+  </si>
+  <si>
+    <t>Bpk Epul</t>
+  </si>
+  <si>
+    <t>Suro adi</t>
+  </si>
+  <si>
+    <t>deden deden alpin</t>
+  </si>
+  <si>
+    <t>Agus Redi</t>
+  </si>
+  <si>
+    <t>dewa sujastra</t>
+  </si>
+  <si>
+    <t>Arlan Dimas</t>
+  </si>
+  <si>
+    <t>Dimas Jamin</t>
+  </si>
+  <si>
+    <t>Rzy __</t>
+  </si>
+  <si>
+    <t>Pra Yuda</t>
+  </si>
+  <si>
+    <t>Julianti Santosa</t>
+  </si>
+  <si>
+    <t>Siti Fatimah</t>
+  </si>
+  <si>
+    <t>Adie Chonk</t>
+  </si>
+  <si>
+    <t>Supri yatno (peking)</t>
+  </si>
+  <si>
+    <t>Koe Nying</t>
+  </si>
+  <si>
+    <t>Putri Malu</t>
+  </si>
+  <si>
+    <t>Anugrah Rahman Rahman</t>
+  </si>
+  <si>
+    <t>Riski Ardii</t>
+  </si>
+  <si>
+    <t>Lupiana Nurkhaidir</t>
+  </si>
+  <si>
+    <t>Made Wara</t>
+  </si>
+  <si>
+    <t>Aan Sundanese</t>
+  </si>
+  <si>
+    <t>Chandra Pgl</t>
+  </si>
+  <si>
+    <t>Raziqhanan hanan</t>
+  </si>
+  <si>
+    <t>Qori'atul maftukah</t>
+  </si>
+  <si>
+    <t>Haedar 1966</t>
+  </si>
+  <si>
+    <t>irmawati niode</t>
+  </si>
+  <si>
+    <t>Saipul Nasar</t>
+  </si>
+  <si>
+    <t>Rian Sugiantto</t>
+  </si>
+  <si>
+    <t>Kecon Masberto07</t>
+  </si>
+  <si>
+    <t>Gatau Nama</t>
+  </si>
+  <si>
+    <t>Hendri Yana</t>
+  </si>
+  <si>
+    <t>Ff Rian</t>
+  </si>
+  <si>
+    <t>WANDHI BATULICIN</t>
+  </si>
+  <si>
+    <t>Aminah</t>
+  </si>
+  <si>
+    <t>Moh.sujadpapeo</t>
+  </si>
+  <si>
+    <t>boy vanny</t>
+  </si>
+  <si>
+    <t>Dery Maulana</t>
+  </si>
+  <si>
+    <t>Ahmad fauzan Shaputra</t>
+  </si>
+  <si>
+    <t>Caca Mutt</t>
+  </si>
+  <si>
+    <t>Dadin Pahrudin</t>
+  </si>
+  <si>
+    <t>Sutrisno Baru</t>
+  </si>
+  <si>
+    <t>Dendis Eko</t>
+  </si>
+  <si>
+    <t>N Jeniara</t>
+  </si>
+  <si>
+    <t>Syaiful morkarto</t>
+  </si>
+  <si>
+    <t>Utomo 085776533700</t>
+  </si>
+  <si>
+    <t>Muhamad Nur Muhtar</t>
+  </si>
+  <si>
+    <t>Billy Billyard Naa</t>
+  </si>
+  <si>
+    <t>Viqi Alvi</t>
+  </si>
+  <si>
+    <t>Mas'ud</t>
+  </si>
+  <si>
+    <t>Yuli astriani</t>
+  </si>
+  <si>
+    <t>Raffa Atharaska</t>
+  </si>
+  <si>
+    <t>Reza Fadil</t>
+  </si>
+  <si>
+    <t>wawan20 atawijaya2</t>
+  </si>
+  <si>
+    <t>Ira Ira</t>
+  </si>
+  <si>
+    <t>Marlisah</t>
+  </si>
+  <si>
+    <t>Jeslin Aura</t>
+  </si>
+  <si>
+    <t>Syaipul Rahman</t>
+  </si>
+  <si>
+    <t>Bheung Bheung</t>
+  </si>
+  <si>
+    <t>Supardi Supardi</t>
+  </si>
+  <si>
+    <t>Delima Venti maria</t>
+  </si>
+  <si>
+    <t>Fitria Tololiu</t>
+  </si>
+  <si>
+    <t>Meli Susana</t>
+  </si>
+  <si>
+    <t>ALIF FIYAN</t>
+  </si>
+  <si>
+    <t>Ris man</t>
+  </si>
+  <si>
+    <t>Wildan Pipit</t>
+  </si>
+  <si>
+    <t>Jen Nal</t>
+  </si>
+  <si>
+    <t>Anita Takaras</t>
+  </si>
+  <si>
+    <t>Ezra Rusydan</t>
+  </si>
+  <si>
+    <t>Fauzi Ozi</t>
+  </si>
+  <si>
+    <t>Heri Purwanto</t>
+  </si>
+  <si>
+    <t>Samsul Baharri</t>
+  </si>
+  <si>
+    <t>Sahuri Aja</t>
+  </si>
+  <si>
+    <t>Dewa Satria</t>
+  </si>
+  <si>
+    <t>Heri Febriyanto</t>
+  </si>
+  <si>
+    <t>Fahqru Au</t>
+  </si>
+  <si>
+    <t>Katiman Supriadi</t>
+  </si>
+  <si>
+    <t>Abiansyah Abi</t>
+  </si>
+  <si>
+    <t>Imron App</t>
+  </si>
+  <si>
+    <t>Juartini jr</t>
+  </si>
+  <si>
+    <t>bagus gak ada iklan</t>
+  </si>
+  <si>
+    <t>Aplikasi ini sangat bagus bebas iklan tidak lemot👍</t>
+  </si>
+  <si>
+    <t>Keren banget aplikasi nya</t>
+  </si>
+  <si>
+    <t>Muak kebanyakan iklan</t>
+  </si>
+  <si>
+    <t>Semangat terus...</t>
+  </si>
+  <si>
+    <t>𝐁𝐚𝐠𝐮𝐬 𝐚𝐩 𝐢𝐧𝐢 𝐬𝐚𝐲𝐚 𝐬𝐚𝐧𝐠𝐚𝐭 𝐬𝐮𝐤𝐚</t>
+  </si>
+  <si>
+    <t>Memberikan pengalaman menonton video tanpa iklan,sangat terbantu</t>
+  </si>
+  <si>
+    <t>Siip</t>
+  </si>
+  <si>
+    <t>Coba dulu ya mindd</t>
+  </si>
+  <si>
+    <t>Cukup baik dan memuaskan 👍🏻</t>
+  </si>
+  <si>
+    <t>Keren</t>
+  </si>
+  <si>
+    <t>sekarang udah banyak iklanya..gak seperti yang dulu.</t>
+  </si>
+  <si>
+    <t>Bagus banget</t>
+  </si>
+  <si>
+    <t>Sampel tapi iklan nya kurangnya pas masuk mau ganti lagu selalu iklan</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>ok bagus</t>
+  </si>
+  <si>
+    <t>Itu tolonglah volumenya ditambahin lg dong</t>
+  </si>
+  <si>
+    <t>Mantap</t>
+  </si>
+  <si>
+    <t>Sangat bagus</t>
+  </si>
+  <si>
+    <t>Sippp</t>
+  </si>
+  <si>
+    <t>Sa gat bagus</t>
+  </si>
+  <si>
+    <t>Go tube mantabbb....tdk KY tetangga sebelah banyak iklannya..(good job go tube). Tapi makin kesini go tube makin lemot brayyy tlg perbakin system nya</t>
+  </si>
+  <si>
+    <t>Bagus</t>
+  </si>
+  <si>
+    <t>Sangat bgus</t>
+  </si>
+  <si>
+    <t>Setiap pakai fitur putar di latar belakang tiba - tiba mati (apabila handphone layar terkunci). Untuk data latar belakang aktif, jangan nyalahin jaringan, saya tahu ditempat saya jaringan jelek atau bagus. Ini dari pengaturan ponsel saya. Atau saya harus beli ponsel baru yang lebih mahal. Handphone semakin mahal fitur semakin canggih. TIDAK PERLU PUSING TINGGAL PINDAH APLIKASI LAIN SAJA SESUAI YANG ANDA INGINKAN. (UNINSTAL)</t>
+  </si>
+  <si>
+    <t>Saya suka baget gotube</t>
+  </si>
+  <si>
+    <t>Gotube ga bisa di download</t>
+  </si>
+  <si>
+    <t>Setiap buka aplikasi ...iklan lazada lama banget.</t>
+  </si>
+  <si>
+    <t>Tingkatkan</t>
+  </si>
+  <si>
+    <t>Jossss</t>
+  </si>
+  <si>
+    <t>Bagus woy</t>
+  </si>
+  <si>
+    <t>sangat puas</t>
+  </si>
+  <si>
+    <t>baguss</t>
+  </si>
+  <si>
+    <t>Bagusss</t>
+  </si>
+  <si>
+    <t>Gotube sangat bagus</t>
+  </si>
+  <si>
+    <t>Gotube ok</t>
+  </si>
+  <si>
+    <t>Saya senang sekali ada gotube yg untuk sehari hari saya di mana pun saya berada dan saya selalu dengerin musik dari gotube sambil berolahraga dan gotube tidak iklan dan gotube benerr benerr baguss dan penampilan ny wow...... Bikin satuu Indonesia mendownload nya saya bener bener sukaa samaa gotube ini krnaa tampil ny sangatt sangatt menarik dan baguss🤩🤗👍🏻👍🏻😻😻😽😽🎊🎉😚😘😁😁</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>Anjay anjay Kren</t>
-  </si>
-  <si>
-    <t>Bagus aplikasi nya</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>gotube sangat bagus.. Menampilkan hiburan yg menarik..</t>
-  </si>
-  <si>
-    <t>Go Tube mantap gak ada kendala</t>
-  </si>
-  <si>
-    <t>Saya baru menggunakan aplikasi GoTube ini. Aplikasinya sangat bagus sekali. Mudah digunakan dan sangat menghibur. Juga sangat lengkap sekali. Terima kasih ya. Salam.</t>
-  </si>
-  <si>
-    <t>aplikasinya bagus mudah mencari yang lagi treding</t>
-  </si>
-  <si>
-    <t>Sangat bagus</t>
-  </si>
-  <si>
-    <t>Top keren tanpa iklan tinggalkan terus misi lagu lagu semuanya</t>
-  </si>
-  <si>
-    <t>Sangat baik dan sangat membantu</t>
-  </si>
-  <si>
-    <t>Seru dan enak buat mencari informasi</t>
-  </si>
-  <si>
-    <t>Seandainya poin bisa d tukar dengan dana/ adabpinjaman di sini. Yakin saya bisa mengalahkan apk lain</t>
-  </si>
-  <si>
-    <t>Keren. Sangat menikmati</t>
-  </si>
-  <si>
-    <t>Mantap</t>
-  </si>
-  <si>
-    <t>Bagus banget Aplikasi ini mksh 🙏</t>
-  </si>
-  <si>
-    <t>Lumayan lah walau pun ada iklan klo masuk lagi 👍👍👍👍😊</t>
-  </si>
-  <si>
-    <t>nyobak dulu</t>
+    <t>Oke oke</t>
+  </si>
+  <si>
+    <t>Puas banget pokonyaa ,walaupun pernah ga bisa d pake , Alhamdulillah sekarang bisa d pake lagi 😍</t>
+  </si>
+  <si>
+    <t>Aplikasinya bagus bisa buat nonton ceramah sambil kerja ini mah 😄👍🏻👍🏻👍🏻</t>
+  </si>
+  <si>
+    <t>love it</t>
+  </si>
+  <si>
+    <t>Saya baru menggunakan youtube go dan ternyata keren banget</t>
+  </si>
+  <si>
+    <t>Enak menikmati lagu tanpa iklan yang menganggu</t>
+  </si>
+  <si>
+    <t>Bgs bgt cok ini mah rekomen</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Jos gandos. Bagus</t>
+  </si>
+  <si>
+    <t>apa kekurangan go tube ; ketika anda ingin mendownload lagu link tidak bisa di tempel di google. seminggu di pakai mulai nertingkah iklan mulai</t>
+  </si>
+  <si>
+    <t>Mantap GoTube GassPoll</t>
+  </si>
+  <si>
+    <t>mhantaaab,,,,gotube,,,</t>
+  </si>
+  <si>
+    <t>Suka banget sama apk ini</t>
+  </si>
+  <si>
+    <t>Sangat memuaskan Go tube aku kasih bintang 🌟🌟🌟🌟🌟 mantap gaess</t>
+  </si>
+  <si>
+    <t>Kirimi bagus tapi jelek</t>
+  </si>
+  <si>
+    <t>Mantap syg nya ga bisa di download.</t>
+  </si>
+  <si>
+    <t>👍👍</t>
+  </si>
+  <si>
+    <t>Lama² makin lemot, mohon di perbaiki, Krn sya suka dgn apk ini</t>
+  </si>
+  <si>
+    <t>bagus tapi g bisa download di pc</t>
+  </si>
+  <si>
+    <t>Katanya go tube tanpa iklan nyatanya di penuhi dengan iklan setiap saya mau masuk aplikasi pasti harua nonton iklan nya dulu trus banyak bug nya lagi</t>
+  </si>
+  <si>
+    <t>GO tube sangat bgus</t>
+  </si>
+  <si>
+    <t>apk nya sangat bagus kukas bintang 5</t>
+  </si>
+  <si>
+    <t>bagus</t>
+  </si>
+  <si>
+    <t>okkkk</t>
+  </si>
+  <si>
+    <t>Aplikasi ini bagus saya suka kerena iklannya tidak ada, mantap 👍👍👍</t>
+  </si>
+  <si>
+    <t>Aplikasi yg sangat menyenangkan,ketika yg lain harus upgrade ke tingkat yg lbh tinggi gotube mmberikan solusi yg lbh baik</t>
+  </si>
+  <si>
+    <t>Mantab</t>
+  </si>
+  <si>
+    <t>👍</t>
+  </si>
+  <si>
+    <t>Terbaik</t>
+  </si>
+  <si>
+    <t>Oke</t>
+  </si>
+  <si>
+    <t>Mantab Standby Terus Tanpa Iklan</t>
+  </si>
+  <si>
+    <t>Trims Gotube terhibur</t>
+  </si>
+  <si>
+    <t>Suara jernih.. Mantab</t>
+  </si>
+  <si>
+    <t>Aplikasi keren bagus 👍🏻</t>
+  </si>
+  <si>
+    <t>jelek</t>
+  </si>
+  <si>
+    <t>Update terbaru tapi tidak bisa di update 🙄</t>
+  </si>
+  <si>
+    <t>Mantap apk nya....</t>
+  </si>
+  <si>
+    <t>BAGUSS</t>
+  </si>
+  <si>
+    <t>Mantab GoTube no iklan Musik ini menemaniku sepanjang hari.. GoTube,Aku,kamu &amp; cinta.. kekuatan untuk bertahan🙏❤️👍</t>
+  </si>
+  <si>
+    <t>Semua lagu yang saya cari ada dan hemat paket data,tanpa iklan</t>
+  </si>
+  <si>
+    <t>yesing pokonamah</t>
+  </si>
+  <si>
+    <t>Sangat memuaskan</t>
+  </si>
+  <si>
+    <t>Aplikasinya bagus, cuman kalo bisa hapus iklan yang mengganggu pas kita nge pause video, biasanya orang gasengaja kepencet, terus ke website yang ga dia masukin, sekian terimakasih 🙏</t>
+  </si>
+  <si>
+    <t>Aplikasi yang sangat bagus</t>
+  </si>
+  <si>
+    <t>Aplikasi sih udah bagus tapi minusnya di update terbaru malah gak bisa nonton iklan buat dapetin reward di update terbaru game gotube mohon di perbaiki ya developer</t>
+  </si>
+  <si>
+    <t>Mantap 🥰 gak ad iklan nya. Dan kualitasnya bagus</t>
+  </si>
+  <si>
+    <t>GoTube adalah salah satu pemutar music ,dll GoTube memiliki satu kekurang yaitu iklan.walau pun iklan hanya ada saat kita ingin menonton tapi GoTube tetap menyenangkan😄😄</t>
+  </si>
+  <si>
+    <t>Seru</t>
+  </si>
+  <si>
+    <t>Wah luar biasa Aplikasi ini sangat hebat ya</t>
+  </si>
+  <si>
+    <t>Sangat bagus untuk gunakan</t>
+  </si>
+  <si>
+    <t>Selalu bug asu lagi asik-asik nyanyi eh malah di stop</t>
+  </si>
+  <si>
+    <t>MH la dh cnh akh foto lapangannya ko</t>
+  </si>
+  <si>
+    <t>Bagus.... Tanpa iklan</t>
+  </si>
+  <si>
+    <t>Tebaik</t>
+  </si>
+  <si>
+    <t>Bagus bisa mendengar musik dengan HP mati dan bisa memilih memilih mantap deh pokoknya 👍👍👍👍</t>
+  </si>
+  <si>
+    <t>Sangat baik</t>
+  </si>
+  <si>
+    <t>Lumayan. Ok</t>
+  </si>
+  <si>
+    <t>Saya suka sama aplikasi ini pokoknya Thbest</t>
+  </si>
+  <si>
+    <t>Baguss👍</t>
+  </si>
+  <si>
+    <t>Mantap lah</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Sangat bagus tanpa troubel</t>
+  </si>
+  <si>
+    <t>Sip ok aku suka</t>
+  </si>
+  <si>
+    <t>Go tube ,mantap 🥰 tapi ga bisa simpan videonya</t>
+  </si>
+  <si>
+    <t>Sangat bagussssss</t>
+  </si>
+  <si>
+    <t>Aplikasi ini bagus cuma iklan kadang muncul, pdhl sdh di tonton dan free iklan 12 jam😇</t>
+  </si>
+  <si>
+    <t>good!!!</t>
+  </si>
+  <si>
+    <t>seru banget untuk liat flim sama dengerin musik</t>
+  </si>
+  <si>
+    <t>Aplikasi nya sangat bagus!, bisa melihat vidio dengan layar yg bisa digerakan dan bisa diatur ukurannya dan juga bisa untuk menyetel lagu tanpa ada layar itu jadi bisa mendengarkan lagu favorit sambil main game atau buka aplikasi</t>
+  </si>
+  <si>
+    <t>sempurna</t>
+  </si>
+  <si>
+    <t>Suka</t>
+  </si>
+  <si>
+    <t>Mantap lah untuk di nikmati tampa ada iklan</t>
+  </si>
+  <si>
+    <t>Bagus skli iklan gak ada</t>
+  </si>
+  <si>
+    <t>Seneng banget apl ini</t>
+  </si>
+  <si>
+    <t>Kenapa jadi browser ini aplikasi</t>
+  </si>
+  <si>
+    <t>Iklan tidak mengganggu</t>
+  </si>
+  <si>
+    <t>download nya lama baget sangat sangat lama aku menunggu nya lame jadi tapi tetep aku tunggu walau pun lama maaf ya kalo aku beri bintang 🌟🌟 3 maaf.terimakasih atas ulasan dari saya.</t>
+  </si>
+  <si>
+    <t>Ok dah,,ga ada iklan</t>
+  </si>
+  <si>
+    <t>Mantap 👍</t>
+  </si>
+  <si>
+    <t>update terbaru malah tidak bisa memutar video...keterangan aplikasi bermasalah ..restart ulang aplikasi ...tapi tetap tidak bisa..</t>
+  </si>
+  <si>
+    <t>bagus tapi masi ada iklan</t>
+  </si>
+  <si>
+    <t>Nggak bagus Kukasi bintang karna kasian Heh! Lu bohong Setiap pemutaran setelah iklan ada iklan lagi itu iklannya lazada pindah aplikasi terus aku Bohong kau</t>
+  </si>
+  <si>
+    <t>Okey</t>
+  </si>
+  <si>
+    <t>terima kasih go tube apl yang sangat membantu saya untuk tonton video.. Lebih baik dan seru...</t>
+  </si>
+  <si>
+    <t>Jos</t>
+  </si>
+  <si>
+    <t>Mantappp RECOMMENDED</t>
+  </si>
+  <si>
+    <t>mantab</t>
+  </si>
+  <si>
+    <t>Bagus gak ada iklan nya sama sekali,kalo kayak gini kan jadi gampang tanpa ada iklan</t>
+  </si>
+  <si>
+    <t>Apk yg bagus buat dengerin musik</t>
+  </si>
+  <si>
+    <t>Ayo lah, masa makin di update makin jelek. Yang tadinya udah terbiasa kek gitu malah di ubah mana langganan di atas lagi jadi kadang² kegeser ke kiri geser ke kanan. berharap langganannya di kembalikan menjadi normal dan juga hilangin yang bikin video berhenti tiba²</t>
+  </si>
+  <si>
+    <t>Mantp</t>
+  </si>
+  <si>
+    <t>Knapa video tidak bisa di download tolong hari ini bisa di download</t>
+  </si>
+  <si>
+    <t>keren</t>
+  </si>
+  <si>
+    <t>Terlalu menyenangkan bukan 😏</t>
+  </si>
+  <si>
+    <t>Awal2 lancar tanpa iklan, kenapa sekarang jadi sering force close &amp; muncul banyak iklan ya?</t>
+  </si>
+  <si>
+    <t>terbaik</t>
+  </si>
+  <si>
+    <t>Saia ngga bakalan update nih krn klo ngikutin update an nyaa bakalan ada iklan nyaa 🤣🤣🤣</t>
+  </si>
+  <si>
+    <t>Bagus banget enak Ken wellll</t>
+  </si>
+  <si>
+    <t>Mantap.jangan kasih iklan</t>
+  </si>
+  <si>
+    <t>Go tube keren abis</t>
+  </si>
+  <si>
+    <t>Mantaf bro</t>
+  </si>
+  <si>
+    <t>Go Tube Bebas Tanpa iklan Tanpa Fitur Premium.</t>
+  </si>
+  <si>
+    <t>Enak buat main geme Dan bisa di matiin Dan enak semua kalo buat hengset</t>
+  </si>
+  <si>
+    <t>Mantap pokoknya</t>
+  </si>
+  <si>
+    <t>Saya sangangt menyukai Go tube Mutar musik tanpa hidup layar terus</t>
+  </si>
+  <si>
+    <t>Tq apk sangat2 good</t>
+  </si>
+  <si>
+    <t>Saya secara pribadi puas dengan gjotube</t>
+  </si>
+  <si>
+    <t>OK banget nih</t>
+  </si>
+  <si>
+    <t>Keren n the best forever</t>
+  </si>
+  <si>
+    <t>Sangat senangdan nyaman untuk ber solawata</t>
+  </si>
+  <si>
+    <t>Suka skali dengan Go Tube</t>
+  </si>
+  <si>
+    <t>Suka ngelagggg harus di hapus terus di instal lagii</t>
+  </si>
+  <si>
+    <t>Keren sih sampai disini cukup puas tapi kurangnya masih erorr dikit</t>
+  </si>
+  <si>
+    <t>Go Tube memang nyaman bs membuat orang jadi happy saat orang ber istiraht pulang krj. Terima kasih Go Tube.</t>
+  </si>
+  <si>
+    <t>Baik dan menghibur</t>
+  </si>
+  <si>
+    <t>Josssssd</t>
+  </si>
+  <si>
+    <t>baik</t>
+  </si>
+  <si>
+    <t>kok gotube sekarang kaya gini , pas aku buka aplikasi go tube nya , malah serasa buka aplikasi Chrom😒</t>
+  </si>
+  <si>
+    <t>Untuk saat ini masih bangus semua nonton vidio tanpa d ganggu iklan" yg gk jls pokok.a top banget dah untuk saat ini</t>
+  </si>
+  <si>
+    <t>yess mantap</t>
+  </si>
+  <si>
+    <t>sangat membantu untuk pekerjaan saya</t>
+  </si>
+  <si>
+    <t>Selama tdk ada iklan . Aplikasi ini ttp berada di hp.ku. Bukan begitu kawan. Klo ada iklan auto uninstal 😂</t>
+  </si>
+  <si>
+    <t>Mantap sekali ndx ada iklan sangat senang Soal ny kalau ada iklan ny sangat menggangu banget tapi di sini sangat puas ndx ada iklan y</t>
+  </si>
+  <si>
+    <t>kenapa ga bisa d putar</t>
+  </si>
+  <si>
+    <t>Enk kali apk nya udh gadak iklan, bisa nonton di latar belakang,gratis lagi, beda jauh kayak Spotify sama YouTube kalo mau dengerin di latar belakang harus premium</t>
+  </si>
+  <si>
+    <t>Tidak bisa diupdate</t>
+  </si>
+  <si>
+    <t>bagus bangat</t>
+  </si>
+  <si>
+    <t>Bagus...</t>
+  </si>
+  <si>
+    <t>Ok mantap</t>
+  </si>
+  <si>
+    <t>lanjutkan bos, bikin jadi lebih baik lagi.</t>
+  </si>
+  <si>
+    <t>Bagus sekali tidak ada iklan</t>
+  </si>
+  <si>
+    <t>Banyak iklannya jdi mles nonton.di pause malah iklan trus .tolong perbaiki dong ini aplikasi</t>
+  </si>
+  <si>
+    <t>Tolong iklannya di kurangi bikin ngeleg2 klo di buat muter music</t>
+  </si>
+  <si>
+    <t≯K̸̸e̸̸r̸̸e̸̸n̸ bgt</t>
+  </si>
+  <si>
+    <t>sangat senang</t>
+  </si>
+  <si>
+    <t>Mantap✌️</t>
+  </si>
+  <si>
+    <t>Bagus sekali gotub taada iklan</t>
+  </si>
+  <si>
+    <t>go tube lebih simpel</t>
+  </si>
+  <si>
+    <t>Gotup nya bagus bisa di Taru sakura</t>
+  </si>
+  <si>
+    <t>Setiap membuka aplikasi ini selalu ada aplikasi Slot Online, kalau bisa diblokir situs itu bikin bencana saja.</t>
+  </si>
+  <si>
+    <t>LUMAYAN SANGAT</t>
+  </si>
+  <si>
+    <t>Enak gampang</t>
+  </si>
+  <si>
+    <t>Bagussss</t>
+  </si>
+  <si>
+    <t>yakher.</t>
+  </si>
+  <si>
+    <t>Youtube go bagus, kuota lumayan irrit, nonton youtbe go, tolong beritanya baru trus,</t>
+  </si>
+  <si>
+    <t>Gotube memang mantap</t>
+  </si>
+  <si>
+    <t>Naise app</t>
+  </si>
+  <si>
+    <t>Apk tnpa iklan mntap</t>
+  </si>
+  <si>
+    <t>Coba dulu</t>
+  </si>
+  <si>
+    <t>good job untuk apk ini.</t>
+  </si>
+  <si>
+    <t>Untuk update terbaru tambahin fitur donwload video offinenya dong</t>
+  </si>
+  <si>
+    <t>Lebih enak kalau musikan, tanpa jeda, aplikasi bagus rekomendasi pkoknya</t>
+  </si>
+  <si>
+    <t>baikk</t>
+  </si>
+  <si>
+    <t>Sangat membantu</t>
+  </si>
+  <si>
+    <t>Ok bagus banget</t>
+  </si>
+  <si>
+    <t>Update ini memang bener",sudah tdk bisa buka game latar belakangnya mati,tolong perbaiki lgi</t>
+  </si>
+  <si>
+    <t>Banyak banget iklan judol woi, bisa kagak sih ilangin kek iklan judolnya ini aplikasi malah minta dosa ke kita cok, dikit dikit judol dikit dikit judol. Padahal gua cuman mau dengerin lagu aja di ganggu sama iklan judol jahanam</t>
+  </si>
+  <si>
+    <t>Ok deh ... boss que</t>
+  </si>
+  <si>
+    <t>Mantap neh</t>
+  </si>
+  <si>
+    <t>Sangat puas</t>
+  </si>
+  <si>
+    <t>👍👍😁😂look</t>
+  </si>
+  <si>
+    <t>Ini bener koin bisa di tukar</t>
+  </si>
+  <si>
+    <t>Sederhana ga banyak syarat</t>
+  </si>
+  <si>
+    <t>Close sendiri</t>
+  </si>
+  <si>
+    <t>Aps ini sangat membuat saya kesal karna setiap lihat chanel mukbang selalu ada tulisan aplikasi tidak menanggapi mohon diperbaiki</t>
+  </si>
+  <si>
+    <t>Mantap lancar selalu</t>
+  </si>
+  <si>
+    <t>Oy</t>
+  </si>
+  <si>
+    <t>Tolong dong mimin tambahin mode download video nya dong tolong ya min</t>
+  </si>
+  <si>
+    <t>Gotube mantap</t>
+  </si>
+  <si>
+    <t>Bagus suka krn gk ada jeda iklan</t>
+  </si>
+  <si>
+    <t>Mainnya Hebat!</t>
+  </si>
+  <si>
+    <t>Bagus rek</t>
+  </si>
+  <si>
+    <t>mantap</t>
+  </si>
+  <si>
+    <t>Apk yg sngat epik</t>
+  </si>
+  <si>
+    <t>Mantaaaap</t>
+  </si>
+  <si>
+    <t>Lagu lengkap</t>
+  </si>
+  <si>
+    <t>Good 👍</t>
+  </si>
+  <si>
+    <t>Memuaskan</t>
+  </si>
+  <si>
+    <t>Saya sangat suka dengan aplikasi gotube ini mudah2an kedepannya akan bisa menjadi lebih baik.</t>
+  </si>
+  <si>
+    <t>Bagus👍lanjutkan👍</t>
+  </si>
+  <si>
+    <t>Gotube ini sangat bagus dan enak banget monton disini karna tidak ada iklan</t>
+  </si>
+  <si>
+    <t>Alhamdulillah</t>
+  </si>
+  <si>
+    <t>Ok bet inj</t>
+  </si>
+  <si>
+    <t>mantap deh pokonya gotube</t>
+  </si>
+  <si>
+    <t>Iklannya banyak bgt. Banyaknya jahat bgt. Ini aku mau hapus. Ganti aplikasi yg lain, walaupun ada iklan tapi nggak sebanyak dan sejahat aplikasi ini</t>
+  </si>
+  <si>
+    <t>Mantap keren istimewa</t>
+  </si>
+  <si>
+    <t>Mantap si apk nya nih, hemat pulak</t>
+  </si>
+  <si>
+    <t>Musikan video tanpa hambatan iklan</t>
+  </si>
+  <si>
+    <t>Kasi bintang 5 apk nya mantap....</t>
+  </si>
+  <si>
+    <t>Klo bisa ada equalizer biar suara musik lebih bersih full Trebel and Bass</t>
+  </si>
+  <si>
+    <t>Lumayan bagus</t>
+  </si>
+  <si>
+    <t>Aplikasinya keren bngt</t>
+  </si>
+  <si>
+    <t>Meng hemat data dan kuata</t>
+  </si>
+  <si>
+    <t>Aku suka yang ini pi ngin tambah pengetahuan</t>
+  </si>
+  <si>
+    <t>Tolong iklan nya ampun dah</t>
+  </si>
+  <si>
+    <t>Kereeen</t>
+  </si>
+  <si>
+    <t>Bagus bro</t>
+  </si>
+  <si>
+    <t>Luar biasa</t>
+  </si>
+  <si>
+    <t>oke</t>
+  </si>
+  <si>
+    <t>Sangat bagus dan</t>
+  </si>
+  <si>
+    <t>Keren sy suka' aplikasi ini</t>
+  </si>
+  <si>
+    <t>semoga aplikasi ini ga banyak kendala lagi. Semoga mulus setiap buka vidio lagu lagu indonesia</t>
+  </si>
+  <si>
+    <t>Ok sangat memuaskan</t>
+  </si>
+  <si>
+    <t>Anti lelet dan juga bagus semua video nya</t>
+  </si>
+  <si>
+    <t>Bagussssssss banget go tube tapi kalau buka video itu tuh lumayan lama atau wifi ngelek maaf kalau ada kesalahan di reting</t>
+  </si>
+  <si>
+    <t>Aplikasinya udah bagus,tapi katanya gaada iklannya pas saya coba tonton video selalu ada iklannya.Tapi gpp saya rating 5 semoga bisa dikurangi lagi iklannya yaa</t>
+  </si>
+  <si>
+    <t>Nice👍</t>
+  </si>
+  <si>
+    <t>👌........❤️</t>
+  </si>
+  <si>
+    <t>Saya menyukai aplikasi ini,sangat menghibur</t>
+  </si>
+  <si>
+    <t>Aplikasi nya tidak bisa di buka saya kasih bintang 5 bagus</t>
+  </si>
+  <si>
+    <t>aplikasi ini sangat seru dan menarik karena tidak ada iklan, tapi kadang sering ga bgs gitu</t>
+  </si>
+  <si>
+    <t>Mantap.... Lebih dari youtobe</t>
+  </si>
+  <si>
+    <t>kenapa sy kasih bintang 4 karna sy kan masuk tuh di dalam go tube tapi pas sy masuk itu gagal jaringan pas sy hapus akun tiba tiba jdi bisa kok aneh y tolong diperbaiki sekian trimasih.</t>
+  </si>
+  <si>
+    <t>Saya sangat puas Dengan Aplikasi ini.</t>
+  </si>
+  <si>
+    <t>Saya coba dulu ya</t>
+  </si>
+  <si>
+    <t>Bagus sekali</t>
+  </si>
+  <si>
+    <t>saran vidio nya bisa di donlowd min</t>
+  </si>
+  <si>
+    <t>Mantapnya</t>
+  </si>
+  <si>
+    <t>Oke banget aplikasi ini</t>
+  </si>
+  <si>
+    <t>Mntab</t>
+  </si>
+  <si>
+    <t>kebanyakn iklan iklan iklan gk jelas</t>
+  </si>
+  <si>
+    <t>Baguus</t>
+  </si>
+  <si>
+    <t>Saya cb dulu</t>
+  </si>
+  <si>
+    <t>KEREN BANGET APLIKASI GO TUBE</t>
+  </si>
+  <si>
+    <t>Mantap sekali mekaai go tube</t>
+  </si>
+  <si>
+    <t>0k..</t>
+  </si>
+  <si>
+    <t>The best</t>
+  </si>
+  <si>
+    <t>Mantul bgt</t>
+  </si>
+  <si>
+    <t>Bagus,, dan bermanfaat</t>
+  </si>
+  <si>
+    <t>Keren tp sayangnya coin nya ga bisa di jdikn tunai</t>
+  </si>
+  <si>
+    <t>Go tube memang mantaf</t>
+  </si>
+  <si>
+    <t>Sayah kasih bintang 5 ya</t>
+  </si>
+  <si>
+    <t>Saya senang aplikasi ini manpaat dan berguna buat saya pokonya mantap</t>
+  </si>
+  <si>
+    <t>Aplikasinya bagus banget bisa nonton tanpa iklan jadi waktu nonton seru</t>
+  </si>
+  <si>
+    <t>Go tube terbaik</t>
+  </si>
+  <si>
+    <t>Aplikasinya keren,bisa main dilatar belakangi</t>
+  </si>
+  <si>
+    <t>mayan lh daripada keganggu ma iklan,tapi gatau brp lama bisa kek gini..😁</t>
+  </si>
+  <si>
+    <t>Nice ini</t>
+  </si>
+  <si>
+    <t>Kya orang tolol iklan nyas judol semua</t>
+  </si>
+  <si>
+    <t>Mantull sangat puas</t>
+  </si>
+  <si>
+    <t>Sangat membantu sy dlm membeli paket tv</t>
+  </si>
+  <si>
+    <t>Memang bagus go tube</t>
+  </si>
+  <si>
+    <t>Aplikasi yg memberikan kemudahan dalam mencari lagu"yg d butuh kan</t>
+  </si>
+  <si>
+    <t>Ģò.þùbe</t>
+  </si>
+  <si>
+    <t>Bagis</t>
+  </si>
+  <si>
+    <t>Awal pake go tube ok ok ajj..tapi makin kesini saat play music sering tiba berhenti dan ga bisa di play</t>
+  </si>
+  <si>
+    <t>Suka mantap</t>
+  </si>
+  <si>
+    <t>Lagi memulai download seh blom makek</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>bisa nonton sambil main game bisa dengar musik</t>
+  </si>
+  <si>
+    <t>😀🖒🇲🇨 yang</t>
+  </si>
+  <si>
+    <t>Bagus bisa dengerin musik sambil Buka WA dan aplikasi lain..Harap di pertahankan kualitas nya jangan muter2 / gak bisa di putar</t>
+  </si>
+  <si>
+    <t>mantap app ini, iklan hampil tidak ada, josss pakok nyan👍🏻👍🏻</t>
+  </si>
+  <si>
+    <t>🥰</t>
+  </si>
+  <si>
+    <t>Too many ads obstruct the click, always accidently clicked ad not meant to be</t>
+  </si>
+  <si>
+    <t>Bagus cuma suka ada iklan</t>
+  </si>
+  <si>
+    <t>Lagu nya mantapppp.</t>
+  </si>
+  <si>
+    <t>Ok, yg penting bisa dengerin musik di latar belakang👍</t>
+  </si>
+  <si>
+    <t>Suka dgn aplk ini 👌</t>
+  </si>
+  <si>
+    <t>Aplikasi nya sangat memuas kan</t>
+  </si>
+  <si>
+    <t>Pler ketatap. Mantap</t>
+  </si>
+  <si>
+    <t>YouTube kalah dengan goutube</t>
+  </si>
+  <si>
+    <t>Q suka aplikasi ini</t>
+  </si>
+  <si>
+    <t>Memang ok</t>
+  </si>
+  <si>
+    <t>Sangat cocok membantu</t>
+  </si>
+  <si>
+    <t>Pokok nya kalian harus Donlowd ini Sumpah seru bamgettt</t>
+  </si>
+  <si>
+    <t>Puas dgr lagu ny tnpa hrs ke ganggu iklan</t>
+  </si>
+  <si>
+    <t>Bagus gk ada iklannya</t>
+  </si>
+  <si>
+    <t>Sangat puass</t>
+  </si>
+  <si>
+    <t>simpel</t>
   </si>
   <si>
     <t>sangat bagus</t>
   </si>
   <si>
-    <t>Bagus</t>
-  </si>
-  <si>
-    <t>Super bagus dan menyenangkan</t>
-  </si>
-  <si>
-    <t>Kerren😎</t>
-  </si>
-  <si>
-    <t>Suka bsa latar belakang</t>
-  </si>
-  <si>
-    <t>Batere hp android cepat boros</t>
-  </si>
-  <si>
-    <t>Bagus mantap ga kaya aplikasi sebelah</t>
-  </si>
-  <si>
-    <t>Oke banget</t>
-  </si>
-  <si>
-    <t>Saya sangat suka aplikasi ini karena minim iklan bahkan hampir tidak ada,suara &amp; tampilan gambar bagus.</t>
-  </si>
-  <si>
-    <t>Okok</t>
-  </si>
-  <si>
-    <t>Baik</t>
-  </si>
-  <si>
-    <t>kerenn buangettt 👍👍👍</t>
-  </si>
-  <si>
-    <t>Bagus,, saya suka krna nonton gk di ganggu iklan,, mantap...</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>bermanfaat untuk belajar</t>
-  </si>
-  <si>
-    <t>bagus dan puas</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Anjai</t>
-  </si>
-  <si>
-    <t>Aneh</t>
-  </si>
-  <si>
-    <t>setiap buka gotube muncul iklan terus tolong agak dikurangi iklannya</t>
-  </si>
-  <si>
-    <t>Siip</t>
-  </si>
-  <si>
-    <t>Memuas kan</t>
-  </si>
-  <si>
-    <t>Pengguna gratis harus di cekek dengan iklan bertubi-tubi</t>
-  </si>
-  <si>
-    <t>Mantappp engga nyesal dah</t>
-  </si>
-  <si>
-    <t>Mantaaaap setiap yang disajikan musiknya hooot banget terima kasih.</t>
-  </si>
-  <si>
-    <t>go tube banyak memakan baterai 79</t>
-  </si>
-  <si>
-    <t>👍</t>
-  </si>
-  <si>
-    <t>Bagus gada iklannya</t>
-  </si>
-  <si>
-    <t>apk ini sgt bagus dn tdk kebanykan iklan👍👍.</t>
-  </si>
-  <si>
-    <t>Okeh</t>
-  </si>
-  <si>
-    <t>Gambar nya burem ,-,</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>Suka bgt dgn apk ini bisa sambil opline</t>
-  </si>
-  <si>
-    <t>Mantap 👍👍👍👍👍👍</t>
-  </si>
-  <si>
-    <t>sayangnya tdk bsa buat nyimpan video</t>
-  </si>
-  <si>
-    <t>Mantab</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Mantap kali</t>
-  </si>
-  <si>
-    <t>Bagus sekali</t>
-  </si>
-  <si>
-    <t>Awalnya sih nih aplikasi bagus banget saya suka sama fitur-fiturnya karena gratis gak kayak youtube harus premium. tapi lama kelamaan makin boros pemakaian kouta dan sering ngebug tampilannya seperti pencarian google tolong di perbaiki Developer saya suka ni apk cuman masalah kouta yg boros saya stop dlu pakai apk ini</t>
-  </si>
-  <si>
-    <t>Katanya babi</t>
-  </si>
-  <si>
-    <t>Bug macet pas scroll, nge blink"</t>
-  </si>
-  <si>
-    <t>Lelet</t>
-  </si>
-  <si>
-    <t>Saya senang</t>
-  </si>
-  <si>
-    <t>Terima kasih go tube telah memberikan kan aplikasi yg bermman manfaat buat masayarakat Indonesia semangat terus</t>
-  </si>
-  <si>
-    <t>Pokok ya bisa segala hal</t>
-  </si>
-  <si>
-    <t>Apa borosin kuota</t>
-  </si>
-  <si>
-    <t>mantap ga ada iklan jadi tenang dengerin lagu✓video nya</t>
-  </si>
-  <si>
-    <t>bagus jg mantap.. 👍👍👍</t>
-  </si>
-  <si>
-    <t>Lagunya asyik banyak pilihan tanpa iklan lancar tanpa hambatan</t>
-  </si>
-  <si>
-    <t>Mantap tanpa iklan</t>
-  </si>
-  <si>
-    <t>Sukses selalu Go tube 💪</t>
-  </si>
-  <si>
-    <t>Keren abis</t>
-  </si>
-  <si>
-    <t>Enak pake gotube jarang iklan</t>
-  </si>
-  <si>
-    <t>Terus kasih yang Ter up date....</t>
-  </si>
-  <si>
-    <t>Mantap Lanjut kan kecepatan nya</t>
-  </si>
-  <si>
-    <t>Puas</t>
-  </si>
-  <si>
-    <t>Bagus walaupun ada sedikit iklan</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>Bagus👍</t>
-  </si>
-  <si>
-    <t>go tube adalah apk yang sangat sangat bermanfaat dan tanpa iklan sedikitpun,apk yang layak untuk mendapatkan bintang ⭐⭐⭐⭐⭐</t>
-  </si>
-  <si>
-    <t>Sekarang hanya jadi browser</t>
-  </si>
-  <si>
-    <t>Oke</t>
-  </si>
-  <si>
-    <t>𝑏𝑎𝑔𝑎𝑖𝑚𝑎𝑛𝑎 𝑐𝑎𝑟𝑎 𝑚𝑒𝑛𝑔ℎ𝑖𝑙𝑎𝑛𝑔𝑘𝑎𝑛 𝑖𝑘𝑙𝑎𝑛 𝑑𝑖 𝑎𝑝𝑙𝑖𝑘𝑎𝑠𝑖 gotub</t>
-  </si>
-  <si>
-    <t>Aku suka GoTube</t>
-  </si>
-  <si>
-    <t>Aplikasinya sangat bagus</t>
-  </si>
-  <si>
-    <t>Banyak iklan, tiba² masuk apk lazada slot lah ini itu. Parah</t>
-  </si>
-  <si>
-    <t>Mantap musik tanpa iklan itu menyenangkan 👍</t>
-  </si>
-  <si>
-    <t>Kenapa pas saya nonton pop up terus main game Roblox, vidio nya selalu ilang ya?</t>
-  </si>
-  <si>
-    <t>Lumayan</t>
-  </si>
-  <si>
-    <t>Semoga semkin baik</t>
-  </si>
-  <si>
-    <t>aplikasinya sangat bagus</t>
-  </si>
-  <si>
-    <t>bagus</t>
-  </si>
-  <si>
-    <t>Bagus banget</t>
-  </si>
-  <si>
-    <t>macet2 kalau mutar music tolong di perbaiki lagi aplikasinya</t>
-  </si>
-  <si>
-    <t>Bagus bgt bisa menonton setiap hari</t>
-  </si>
-  <si>
-    <t>Mantul</t>
-  </si>
-  <si>
-    <t>Enak di pakai.</t>
-  </si>
-  <si>
-    <t>aplikasi yg d rekomendasikan untuk semua</t>
-  </si>
-  <si>
-    <t>Aplikasi nya bagus dan menarik</t>
-  </si>
-  <si>
-    <t>Bagus,baik</t>
-  </si>
-  <si>
-    <t>Goood</t>
-  </si>
-  <si>
-    <t>Go tube its the best</t>
-  </si>
-  <si>
-    <t>Sangat puas</t>
-  </si>
-  <si>
-    <t>Sangat seru</t>
-  </si>
-  <si>
-    <t>Sejauh ini ok banget</t>
-  </si>
-  <si>
-    <t>muantap bg</t>
-  </si>
-  <si>
-    <t>Mantapppl</t>
-  </si>
-  <si>
-    <t>Saya suku memutarmusik di sini</t>
-  </si>
-  <si>
-    <t>siip GO Tube hebat n joos..</t>
-  </si>
-  <si>
-    <t>I like it</t>
-  </si>
-  <si>
-    <t>Ok bagus bngget</t>
-  </si>
-  <si>
-    <t>Mantap pakai GoTube</t>
-  </si>
-  <si>
-    <t>Sering error could play this video</t>
-  </si>
-  <si>
-    <t>Mantull</t>
-  </si>
-  <si>
-    <t>Mantsp you tubgo tanpa iklan</t>
-  </si>
-  <si>
-    <t>Bagus kena d hati</t>
-  </si>
-  <si>
-    <t>Tes dulu klau bgus tambah bintang</t>
-  </si>
-  <si>
-    <t>Bagus👍👍</t>
-  </si>
-  <si>
-    <t>Hy admin tolong perbaiki go tube saya ,dan saya tidak bisa melakukan pemutaran video ,musik ,yang ada malah seperti google,tolong perbaiki terimakasih</t>
-  </si>
-  <si>
-    <t>Go tube emang ok👌👌👌</t>
-  </si>
-  <si>
-    <t>Keren</t>
-  </si>
-  <si>
-    <t>Very good 👍👍👍</t>
-  </si>
-  <si>
-    <t>Sangat memuaskan</t>
-  </si>
-  <si>
-    <t>Biar bintang yg berbicara 😁</t>
-  </si>
-  <si>
-    <t>Nice no iklan,,enak buat nonton</t>
-  </si>
-  <si>
-    <t>Sippp , tanpa iklan .</t>
-  </si>
-  <si>
-    <t>aplikasi gotube memang paling yahuut</t>
-  </si>
-  <si>
-    <t>Aplikasi terkeren</t>
-  </si>
-  <si>
-    <t>Sangat seru Membikin</t>
-  </si>
-  <si>
-    <t>Memuaskan</t>
-  </si>
-  <si>
-    <t>Bagus banget bisa nonton Garuda Wisnu satria muda</t>
-  </si>
-  <si>
-    <t>Mantap brow</t>
-  </si>
-  <si>
-    <t>Oke,no iklan thebest</t>
-  </si>
-  <si>
-    <t>Jos</t>
-  </si>
-  <si>
-    <t>aplikasi ini sangat bagus buat nonton atau dengerin musik lancar tanpa ada iklan</t>
-  </si>
-  <si>
-    <t>hemat !!</t>
-  </si>
-  <si>
-    <t>Bisa menghemat kuota tuk bayar iklan</t>
-  </si>
-  <si>
-    <t>Asyij3 sangat asyik</t>
-  </si>
-  <si>
-    <t>Mantap lancar jaya tanpa iklan...</t>
-  </si>
-  <si>
-    <t>Saya senang dengan aplikasi ini</t>
-  </si>
-  <si>
-    <t>😍</t>
-  </si>
-  <si>
-    <t>pengalaman luar biasa menggunakan GoTube</t>
-  </si>
-  <si>
-    <t>Goooood</t>
-  </si>
-  <si>
-    <t>Aplikasi nya bagus</t>
-  </si>
-  <si>
-    <t>Oke aplikasi keren abis</t>
-  </si>
-  <si>
-    <t>Bagus bangett sukaaa deeh</t>
-  </si>
-  <si>
-    <t>Sagat bagus</t>
-  </si>
-  <si>
-    <t>Tampah iklan gesss</t>
-  </si>
-  <si>
-    <t>Mau lagu tinggal pilih</t>
-  </si>
-  <si>
-    <t>Bagus bisa putar lagu tapi ngga bisa musi reatar</t>
-  </si>
-  <si>
-    <t>Lebih baik</t>
-  </si>
-  <si>
-    <t>sangat cocok untuk yang hobi musik dan video</t>
-  </si>
-  <si>
-    <t>cepat dan mudah</t>
-  </si>
-  <si>
-    <t>Go tube memang mantap gk ad iklan bisa di putr juga dlm mode off...jadi bisa hemat baterai</t>
-  </si>
-  <si>
-    <t>Gotube terbaik banget pokoknya</t>
-  </si>
-  <si>
-    <t>ok bagus</t>
-  </si>
-  <si>
-    <t>👍👍🌺</t>
-  </si>
-  <si>
-    <t>Dengan GoTube semuanya menjadi lebih mudah</t>
-  </si>
-  <si>
-    <t>Pertama kali download sih, dapet iklan dari FB pas di cobain buat sekarang sih lumayan bagus apknya, bisa buka video atau musik tanpa iklan dan juga bisa setel musik di latar belakang juga. Semoga konsisten terus dan syukur bisa lebih baik lagi, untuk saat ini udah ngerasa cukup sih belom ada saran atau keluhan soal apk ini. Mkasih developer buat apknya😊</t>
-  </si>
-  <si>
-    <t>Tolong sistem di perbaiki, asal putar setengah lagi selalu berhenti sendiri terus hilang "sistem error" kesel banget anjir kek gini</t>
-  </si>
-  <si>
-    <t>asyik</t>
-  </si>
-  <si>
-    <t>Wowww</t>
-  </si>
-  <si>
-    <t>mntap youtube go</t>
-  </si>
-  <si>
-    <t>Sangat mantaplh</t>
+    <t>iklannya Doubel 3</t>
+  </si>
+  <si>
+    <t>Sangat membantu disaat sedang diperjalanan tidak perlu lagi untuk digenggam</t>
+  </si>
+  <si>
+    <t>Good app</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +2519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1491,10 +2541,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>403</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1502,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>404</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1513,7 +2563,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>405</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1524,10 +2574,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>406</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1535,10 +2585,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>407</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1546,7 +2596,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>408</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1557,7 +2607,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>409</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1568,7 +2618,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>410</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1579,10 +2629,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>411</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1590,7 +2640,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>412</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1601,7 +2651,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>413</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1612,7 +2662,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>414</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1623,10 +2673,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>415</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1634,7 +2684,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>416</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1645,7 +2695,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1656,7 +2706,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>418</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -1667,10 +2717,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>417</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1678,10 +2728,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>419</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1689,10 +2739,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>420</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1700,7 +2750,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>421</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1711,7 +2761,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>422</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1722,7 +2772,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>423</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -1733,10 +2783,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>424</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1744,7 +2794,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>425</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -1755,7 +2805,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>227</v>
+        <v>426</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -1766,7 +2816,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>228</v>
+        <v>427</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -1777,7 +2827,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>428</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -1788,10 +2838,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>230</v>
+        <v>429</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1799,10 +2849,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>231</v>
+        <v>430</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1810,7 +2860,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
+        <v>431</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1821,7 +2871,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>233</v>
+        <v>432</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1832,7 +2882,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>420</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -1843,7 +2893,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>433</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -1854,7 +2904,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>434</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1865,7 +2915,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>435</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1876,7 +2926,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>238</v>
+        <v>436</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1887,10 +2937,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>413</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1898,10 +2948,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>240</v>
+        <v>437</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1909,10 +2959,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>241</v>
+        <v>438</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1920,7 +2970,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>439</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1931,10 +2981,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>440</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1942,10 +2992,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>222</v>
+        <v>441</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1953,7 +3003,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>442</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1964,7 +3014,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>443</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1975,10 +3025,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>246</v>
+        <v>444</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1986,7 +3036,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>440</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1997,7 +3047,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>248</v>
+        <v>445</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -2008,7 +3058,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>249</v>
+        <v>446</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -2019,7 +3069,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
+        <v>447</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -2030,7 +3080,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>448</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -2041,10 +3091,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>449</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2052,7 +3102,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>450</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -2063,10 +3113,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>451</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2074,7 +3124,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>452</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -2085,7 +3135,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>255</v>
+        <v>453</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -2096,10 +3146,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>454</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2107,7 +3157,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>256</v>
+        <v>455</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -2118,7 +3168,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>257</v>
+        <v>456</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -2129,10 +3179,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>258</v>
+        <v>457</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2140,7 +3190,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>259</v>
+        <v>421</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -2151,10 +3201,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>458</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2162,10 +3212,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>261</v>
+        <v>459</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2173,10 +3223,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>460</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2184,10 +3234,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>461</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2195,10 +3245,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>262</v>
+        <v>462</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2206,7 +3256,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>263</v>
+        <v>463</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -2217,7 +3267,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>217</v>
+        <v>464</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -2228,7 +3278,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>264</v>
+        <v>417</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -2239,7 +3289,7 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>420</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -2250,7 +3300,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>266</v>
+        <v>425</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -2261,10 +3311,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>267</v>
+        <v>465</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2272,7 +3322,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>466</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -2283,7 +3333,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>268</v>
+        <v>467</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -2294,7 +3344,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>269</v>
+        <v>468</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -2305,7 +3355,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>469</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -2316,7 +3366,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -2327,7 +3377,7 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>271</v>
+        <v>420</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -2338,7 +3388,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>470</v>
       </c>
       <c r="C79">
         <v>5</v>
@@ -2349,7 +3399,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>272</v>
+        <v>471</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -2360,7 +3410,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>472</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -2371,7 +3421,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>273</v>
+        <v>425</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -2382,7 +3432,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>274</v>
+        <v>425</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -2393,7 +3443,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>275</v>
+        <v>417</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -2404,7 +3454,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>276</v>
+        <v>473</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -2415,7 +3465,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>277</v>
+        <v>474</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -2426,7 +3476,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>206</v>
+        <v>475</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -2437,10 +3487,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
+        <v>476</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2448,10 +3498,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>477</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2459,7 +3509,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>278</v>
+        <v>478</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -2470,7 +3520,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>231</v>
+        <v>479</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -2481,7 +3531,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>279</v>
+        <v>480</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -2492,7 +3542,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>280</v>
+        <v>481</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -2503,7 +3553,7 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>234</v>
+        <v>482</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -2514,7 +3564,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>281</v>
+        <v>483</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -2525,10 +3575,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>282</v>
+        <v>484</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2536,7 +3586,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>283</v>
+        <v>485</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -2547,7 +3597,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>420</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -2558,10 +3608,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>486</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2569,7 +3619,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>285</v>
+        <v>487</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -2580,10 +3630,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>286</v>
+        <v>488</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2591,10 +3641,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>287</v>
+        <v>489</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2602,7 +3652,7 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>288</v>
+        <v>490</v>
       </c>
       <c r="C103">
         <v>5</v>
@@ -2613,10 +3663,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>289</v>
+        <v>491</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2624,7 +3674,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>290</v>
+        <v>471</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -2635,10 +3685,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>492</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2646,10 +3696,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>291</v>
+        <v>493</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2657,7 +3707,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>292</v>
+        <v>494</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -2668,7 +3718,7 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="C109">
         <v>5</v>
@@ -2679,7 +3729,7 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>279</v>
+        <v>420</v>
       </c>
       <c r="C110">
         <v>5</v>
@@ -2690,7 +3740,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>294</v>
+        <v>495</v>
       </c>
       <c r="C111">
         <v>5</v>
@@ -2701,7 +3751,7 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>217</v>
+        <v>496</v>
       </c>
       <c r="C112">
         <v>5</v>
@@ -2712,10 +3762,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>295</v>
+        <v>420</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2723,7 +3773,7 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>296</v>
+        <v>497</v>
       </c>
       <c r="C114">
         <v>5</v>
@@ -2734,7 +3784,7 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>297</v>
+        <v>498</v>
       </c>
       <c r="C115">
         <v>5</v>
@@ -2745,7 +3795,7 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
+        <v>499</v>
       </c>
       <c r="C116">
         <v>5</v>
@@ -2756,7 +3806,7 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>298</v>
+        <v>440</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -2767,10 +3817,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>299</v>
+        <v>500</v>
       </c>
       <c r="C118">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2778,7 +3828,7 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>222</v>
+        <v>417</v>
       </c>
       <c r="C119">
         <v>5</v>
@@ -2789,7 +3839,7 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="C120">
         <v>5</v>
@@ -2800,10 +3850,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>301</v>
+        <v>502</v>
       </c>
       <c r="C121">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2811,7 +3861,7 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>302</v>
+        <v>503</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -2822,7 +3872,7 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>303</v>
+        <v>504</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -2833,7 +3883,7 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>304</v>
+        <v>505</v>
       </c>
       <c r="C124">
         <v>5</v>
@@ -2844,10 +3894,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>305</v>
+        <v>506</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2855,7 +3905,7 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>306</v>
+        <v>436</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -2866,7 +3916,7 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -2877,7 +3927,7 @@
         <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>308</v>
+        <v>420</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -2888,7 +3938,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>309</v>
+        <v>507</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -2899,7 +3949,7 @@
         <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>310</v>
+        <v>508</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -2910,7 +3960,7 @@
         <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>509</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -2921,7 +3971,7 @@
         <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="C132">
         <v>5</v>
@@ -2932,7 +3982,7 @@
         <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>313</v>
+        <v>510</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -2943,10 +3993,10 @@
         <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>314</v>
+        <v>511</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2954,7 +4004,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>315</v>
+        <v>512</v>
       </c>
       <c r="C135">
         <v>5</v>
@@ -2965,10 +4015,10 @@
         <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>217</v>
+        <v>417</v>
       </c>
       <c r="C136">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2976,7 +4026,7 @@
         <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>234</v>
+        <v>513</v>
       </c>
       <c r="C137">
         <v>5</v>
@@ -2987,10 +4037,10 @@
         <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>316</v>
+        <v>514</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2998,10 +4048,10 @@
         <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>317</v>
+        <v>515</v>
       </c>
       <c r="C139">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3009,10 +4059,10 @@
         <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>206</v>
+        <v>516</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3020,7 +4070,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>222</v>
+        <v>517</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -3031,10 +4081,10 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>318</v>
+        <v>417</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3042,10 +4092,10 @@
         <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>319</v>
+        <v>518</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3053,10 +4103,10 @@
         <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>320</v>
+        <v>471</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3064,7 +4114,7 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>321</v>
+        <v>519</v>
       </c>
       <c r="C145">
         <v>5</v>
@@ -3075,7 +4125,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>322</v>
+        <v>520</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -3086,7 +4136,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>222</v>
+        <v>420</v>
       </c>
       <c r="C147">
         <v>5</v>
@@ -3097,10 +4147,10 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>323</v>
+        <v>521</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3108,10 +4158,10 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>324</v>
+        <v>522</v>
       </c>
       <c r="C149">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3119,10 +4169,10 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>325</v>
+        <v>413</v>
       </c>
       <c r="C150">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3130,10 +4180,10 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>326</v>
+        <v>523</v>
       </c>
       <c r="C151">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3141,7 +4191,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>222</v>
+        <v>524</v>
       </c>
       <c r="C152">
         <v>5</v>
@@ -3152,7 +4202,7 @@
         <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>327</v>
+        <v>525</v>
       </c>
       <c r="C153">
         <v>5</v>
@@ -3163,7 +4213,7 @@
         <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>293</v>
+        <v>526</v>
       </c>
       <c r="C154">
         <v>5</v>
@@ -3174,7 +4224,7 @@
         <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>328</v>
+        <v>527</v>
       </c>
       <c r="C155">
         <v>5</v>
@@ -3185,7 +4235,7 @@
         <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>329</v>
+        <v>528</v>
       </c>
       <c r="C156">
         <v>5</v>
@@ -3196,7 +4246,7 @@
         <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>217</v>
+        <v>464</v>
       </c>
       <c r="C157">
         <v>5</v>
@@ -3207,7 +4257,7 @@
         <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>330</v>
+        <v>529</v>
       </c>
       <c r="C158">
         <v>5</v>
@@ -3218,7 +4268,7 @@
         <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>331</v>
+        <v>530</v>
       </c>
       <c r="C159">
         <v>5</v>
@@ -3229,10 +4279,10 @@
         <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>332</v>
+        <v>531</v>
       </c>
       <c r="C160">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3240,7 +4290,7 @@
         <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>206</v>
+        <v>532</v>
       </c>
       <c r="C161">
         <v>5</v>
@@ -3251,7 +4301,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>333</v>
+        <v>533</v>
       </c>
       <c r="C162">
         <v>5</v>
@@ -3262,10 +4312,10 @@
         <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>334</v>
+        <v>420</v>
       </c>
       <c r="C163">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3273,7 +4323,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>335</v>
+        <v>534</v>
       </c>
       <c r="C164">
         <v>5</v>
@@ -3284,10 +4334,10 @@
         <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>336</v>
+        <v>535</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3295,10 +4345,10 @@
         <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>337</v>
+        <v>536</v>
       </c>
       <c r="C166">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3306,10 +4356,10 @@
         <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>338</v>
+        <v>537</v>
       </c>
       <c r="C167">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3317,10 +4367,10 @@
         <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>339</v>
+        <v>538</v>
       </c>
       <c r="C168">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3328,7 +4378,7 @@
         <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>340</v>
+        <v>471</v>
       </c>
       <c r="C169">
         <v>5</v>
@@ -3339,7 +4389,7 @@
         <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>217</v>
+        <v>425</v>
       </c>
       <c r="C170">
         <v>5</v>
@@ -3350,10 +4400,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>341</v>
+        <v>539</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3361,7 +4411,7 @@
         <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="C172">
         <v>5</v>
@@ -3372,7 +4422,7 @@
         <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>221</v>
+        <v>540</v>
       </c>
       <c r="C173">
         <v>5</v>
@@ -3383,7 +4433,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>222</v>
+        <v>541</v>
       </c>
       <c r="C174">
         <v>5</v>
@@ -3394,10 +4444,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>343</v>
+        <v>542</v>
       </c>
       <c r="C175">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3405,7 +4455,7 @@
         <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>344</v>
+        <v>471</v>
       </c>
       <c r="C176">
         <v>5</v>
@@ -3416,7 +4466,7 @@
         <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>345</v>
+        <v>440</v>
       </c>
       <c r="C177">
         <v>5</v>
@@ -3427,7 +4477,7 @@
         <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>543</v>
       </c>
       <c r="C178">
         <v>5</v>
@@ -3438,7 +4488,7 @@
         <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>346</v>
+        <v>544</v>
       </c>
       <c r="C179">
         <v>5</v>
@@ -3449,7 +4499,7 @@
         <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>347</v>
+        <v>545</v>
       </c>
       <c r="C180">
         <v>5</v>
@@ -3460,7 +4510,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>348</v>
+        <v>421</v>
       </c>
       <c r="C181">
         <v>5</v>
@@ -3471,7 +4521,7 @@
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>349</v>
+        <v>441</v>
       </c>
       <c r="C182">
         <v>5</v>
@@ -3482,7 +4532,7 @@
         <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>350</v>
+        <v>546</v>
       </c>
       <c r="C183">
         <v>5</v>
@@ -3493,10 +4543,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>351</v>
+        <v>547</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3504,7 +4554,7 @@
         <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>352</v>
+        <v>548</v>
       </c>
       <c r="C185">
         <v>5</v>
@@ -3515,7 +4565,7 @@
         <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>353</v>
+        <v>549</v>
       </c>
       <c r="C186">
         <v>5</v>
@@ -3526,7 +4576,7 @@
         <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>354</v>
+        <v>550</v>
       </c>
       <c r="C187">
         <v>5</v>
@@ -3537,7 +4587,7 @@
         <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>355</v>
+        <v>551</v>
       </c>
       <c r="C188">
         <v>5</v>
@@ -3548,10 +4598,10 @@
         <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>356</v>
+        <v>431</v>
       </c>
       <c r="C189">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3559,7 +4609,7 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>357</v>
+        <v>552</v>
       </c>
       <c r="C190">
         <v>5</v>
@@ -3570,10 +4620,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>217</v>
+        <v>553</v>
       </c>
       <c r="C191">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3581,10 +4631,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>358</v>
+        <v>554</v>
       </c>
       <c r="C192">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3592,10 +4642,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>359</v>
+        <v>555</v>
       </c>
       <c r="C193">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3603,7 +4653,7 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>360</v>
+        <v>556</v>
       </c>
       <c r="C194">
         <v>5</v>
@@ -3614,10 +4664,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>361</v>
+        <v>557</v>
       </c>
       <c r="C195">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3625,7 +4675,7 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>362</v>
+        <v>558</v>
       </c>
       <c r="C196">
         <v>5</v>
@@ -3636,10 +4686,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>322</v>
+        <v>559</v>
       </c>
       <c r="C197">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3647,7 +4697,7 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="C198">
         <v>5</v>
@@ -3658,7 +4708,7 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>221</v>
+        <v>560</v>
       </c>
       <c r="C199">
         <v>5</v>
@@ -3669,7 +4719,7 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>364</v>
+        <v>561</v>
       </c>
       <c r="C200">
         <v>5</v>
@@ -3680,10 +4730,2210 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
+        <v>562</v>
+      </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" t="s">
+        <v>563</v>
+      </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" t="s">
+        <v>564</v>
+      </c>
+      <c r="C203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" t="s">
+        <v>425</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" t="s">
+        <v>565</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" t="s">
+        <v>566</v>
+      </c>
+      <c r="C206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" t="s">
+        <v>567</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" t="s">
+        <v>568</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" t="s">
+        <v>569</v>
+      </c>
+      <c r="C209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s">
+        <v>570</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" t="s">
+        <v>571</v>
+      </c>
+      <c r="C211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" t="s">
+        <v>572</v>
+      </c>
+      <c r="C212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" t="s">
+        <v>573</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" t="s">
+        <v>574</v>
+      </c>
+      <c r="C214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" t="s">
+        <v>575</v>
+      </c>
+      <c r="C215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" t="s">
+        <v>576</v>
+      </c>
+      <c r="C216">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="s">
+        <v>577</v>
+      </c>
+      <c r="C217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" t="s">
+        <v>578</v>
+      </c>
+      <c r="C218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" t="s">
+        <v>579</v>
+      </c>
+      <c r="C219">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" t="s">
+        <v>580</v>
+      </c>
+      <c r="C220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" t="s">
+        <v>581</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" t="s">
+        <v>582</v>
+      </c>
+      <c r="C222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" t="s">
+        <v>583</v>
+      </c>
+      <c r="C223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" t="s">
+        <v>584</v>
+      </c>
+      <c r="C224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" t="s">
+        <v>585</v>
+      </c>
+      <c r="C225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" t="s">
+        <v>415</v>
+      </c>
+      <c r="C226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" t="s">
+        <v>586</v>
+      </c>
+      <c r="C227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" t="s">
+        <v>587</v>
+      </c>
+      <c r="C228">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" t="s">
+        <v>588</v>
+      </c>
+      <c r="C229">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" t="s">
+        <v>589</v>
+      </c>
+      <c r="C230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" t="s">
+        <v>590</v>
+      </c>
+      <c r="C231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" t="s">
+        <v>591</v>
+      </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" t="s">
+        <v>425</v>
+      </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" t="s">
+        <v>592</v>
+      </c>
+      <c r="C234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" t="s">
+        <v>593</v>
+      </c>
+      <c r="C235">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" t="s">
+        <v>594</v>
+      </c>
+      <c r="C236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" t="s">
+        <v>595</v>
+      </c>
+      <c r="C237">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" t="s">
+        <v>420</v>
+      </c>
+      <c r="C238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" t="s">
+        <v>413</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" t="s">
+        <v>596</v>
+      </c>
+      <c r="C240">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" t="s">
+        <v>597</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" t="s">
+        <v>413</v>
+      </c>
+      <c r="C242">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" t="s">
+        <v>415</v>
+      </c>
+      <c r="C243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" t="s">
+        <v>598</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" t="s">
+        <v>599</v>
+      </c>
+      <c r="C245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" t="s">
+        <v>600</v>
+      </c>
+      <c r="C246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" t="s">
+        <v>601</v>
+      </c>
+      <c r="C247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" t="s">
+        <v>602</v>
+      </c>
+      <c r="C248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" t="s">
+        <v>603</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" t="s">
+        <v>604</v>
+      </c>
+      <c r="C250">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" t="s">
+        <v>605</v>
+      </c>
+      <c r="C251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" t="s">
+        <v>606</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" t="s">
+        <v>449</v>
+      </c>
+      <c r="C253">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" t="s">
+        <v>607</v>
+      </c>
+      <c r="C254">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" t="s">
+        <v>471</v>
+      </c>
+      <c r="C255">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" t="s">
+        <v>608</v>
+      </c>
+      <c r="C256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" t="s">
+        <v>609</v>
+      </c>
+      <c r="C257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" t="s">
+        <v>610</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259" t="s">
+        <v>611</v>
+      </c>
+      <c r="C259">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260" t="s">
+        <v>612</v>
+      </c>
+      <c r="C260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" t="s">
+        <v>420</v>
+      </c>
+      <c r="C261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" t="s">
+        <v>613</v>
+      </c>
+      <c r="C262">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" t="s">
+        <v>425</v>
+      </c>
+      <c r="C263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" t="s">
+        <v>614</v>
+      </c>
+      <c r="C264">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" t="s">
+        <v>469</v>
+      </c>
+      <c r="C265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" t="s">
+        <v>615</v>
+      </c>
+      <c r="C266">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" t="s">
+        <v>420</v>
+      </c>
+      <c r="C267">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" t="s">
+        <v>512</v>
+      </c>
+      <c r="C268">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" t="s">
+        <v>616</v>
+      </c>
+      <c r="C269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" t="s">
+        <v>617</v>
+      </c>
+      <c r="C270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271" t="s">
+        <v>440</v>
+      </c>
+      <c r="C271">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" t="s">
+        <v>618</v>
+      </c>
+      <c r="C272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" t="s">
+        <v>610</v>
+      </c>
+      <c r="C273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" t="s">
+        <v>464</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" t="s">
+        <v>619</v>
+      </c>
+      <c r="C275">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" t="s">
+        <v>620</v>
+      </c>
+      <c r="C276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" t="s">
+        <v>621</v>
+      </c>
+      <c r="C277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" t="s">
+        <v>622</v>
+      </c>
+      <c r="C278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279" t="s">
+        <v>623</v>
+      </c>
+      <c r="C279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280" t="s">
+        <v>614</v>
+      </c>
+      <c r="C280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" t="s">
+        <v>624</v>
+      </c>
+      <c r="C281">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282" t="s">
+        <v>471</v>
+      </c>
+      <c r="C282">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283" t="s">
+        <v>625</v>
+      </c>
+      <c r="C283">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284" t="s">
+        <v>626</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285" t="s">
+        <v>627</v>
+      </c>
+      <c r="C285">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286" t="s">
+        <v>628</v>
+      </c>
+      <c r="C286">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" t="s">
+        <v>417</v>
+      </c>
+      <c r="C287">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288" t="s">
+        <v>629</v>
+      </c>
+      <c r="C288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289" t="s">
+        <v>630</v>
+      </c>
+      <c r="C289">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290" t="s">
+        <v>631</v>
+      </c>
+      <c r="C290">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291" t="s">
+        <v>632</v>
+      </c>
+      <c r="C291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292" t="s">
+        <v>633</v>
+      </c>
+      <c r="C292">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293" t="s">
+        <v>634</v>
+      </c>
+      <c r="C293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294" t="s">
+        <v>635</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295" t="s">
+        <v>636</v>
+      </c>
+      <c r="C295">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296" t="s">
+        <v>637</v>
+      </c>
+      <c r="C296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297" t="s">
+        <v>638</v>
+      </c>
+      <c r="C297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298" t="s">
+        <v>639</v>
+      </c>
+      <c r="C298">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299" t="s">
+        <v>640</v>
+      </c>
+      <c r="C299">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300" t="s">
+        <v>641</v>
+      </c>
+      <c r="C300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301" t="s">
+        <v>642</v>
+      </c>
+      <c r="C301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>303</v>
+      </c>
+      <c r="B302" t="s">
+        <v>614</v>
+      </c>
+      <c r="C302">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>304</v>
+      </c>
+      <c r="B303" t="s">
+        <v>643</v>
+      </c>
+      <c r="C303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304" t="s">
+        <v>644</v>
+      </c>
+      <c r="C304">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>306</v>
+      </c>
+      <c r="B305" t="s">
+        <v>645</v>
+      </c>
+      <c r="C305">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306" t="s">
+        <v>646</v>
+      </c>
+      <c r="C306">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307" t="s">
+        <v>440</v>
+      </c>
+      <c r="C307">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>309</v>
+      </c>
+      <c r="B308" t="s">
+        <v>647</v>
+      </c>
+      <c r="C308">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>310</v>
+      </c>
+      <c r="B309" t="s">
+        <v>502</v>
+      </c>
+      <c r="C309">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310" t="s">
+        <v>648</v>
+      </c>
+      <c r="C310">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>312</v>
+      </c>
+      <c r="B311" t="s">
+        <v>649</v>
+      </c>
+      <c r="C311">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>313</v>
+      </c>
+      <c r="B312" t="s">
+        <v>413</v>
+      </c>
+      <c r="C312">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313" t="s">
+        <v>464</v>
+      </c>
+      <c r="C313">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>315</v>
+      </c>
+      <c r="B314" t="s">
+        <v>650</v>
+      </c>
+      <c r="C314">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315" t="s">
+        <v>534</v>
+      </c>
+      <c r="C315">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316" t="s">
+        <v>651</v>
+      </c>
+      <c r="C316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>318</v>
+      </c>
+      <c r="B317" t="s">
+        <v>652</v>
+      </c>
+      <c r="C317">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>319</v>
+      </c>
+      <c r="B318" t="s">
+        <v>526</v>
+      </c>
+      <c r="C318">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>320</v>
+      </c>
+      <c r="B319" t="s">
+        <v>449</v>
+      </c>
+      <c r="C319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>321</v>
+      </c>
+      <c r="B320" t="s">
+        <v>425</v>
+      </c>
+      <c r="C320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>322</v>
+      </c>
+      <c r="B321" t="s">
+        <v>653</v>
+      </c>
+      <c r="C321">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322" t="s">
+        <v>654</v>
+      </c>
+      <c r="C322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>324</v>
+      </c>
+      <c r="B323" t="s">
+        <v>655</v>
+      </c>
+      <c r="C323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>325</v>
+      </c>
+      <c r="B324" t="s">
+        <v>656</v>
+      </c>
+      <c r="C324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>326</v>
+      </c>
+      <c r="B325" t="s">
+        <v>413</v>
+      </c>
+      <c r="C325">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>327</v>
+      </c>
+      <c r="B326" t="s">
+        <v>464</v>
+      </c>
+      <c r="C326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>328</v>
+      </c>
+      <c r="B327" t="s">
+        <v>421</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>329</v>
+      </c>
+      <c r="B328" t="s">
+        <v>425</v>
+      </c>
+      <c r="C328">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>330</v>
+      </c>
+      <c r="B329" t="s">
+        <v>657</v>
+      </c>
+      <c r="C329">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>331</v>
+      </c>
+      <c r="B330" t="s">
+        <v>616</v>
+      </c>
+      <c r="C330">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>332</v>
+      </c>
+      <c r="B331" t="s">
+        <v>658</v>
+      </c>
+      <c r="C331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>333</v>
+      </c>
+      <c r="B332" t="s">
+        <v>421</v>
+      </c>
+      <c r="C332">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>334</v>
+      </c>
+      <c r="B333" t="s">
+        <v>659</v>
+      </c>
+      <c r="C333">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>335</v>
+      </c>
+      <c r="B334" t="s">
+        <v>660</v>
+      </c>
+      <c r="C334">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>336</v>
+      </c>
+      <c r="B335" t="s">
+        <v>661</v>
+      </c>
+      <c r="C335">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>337</v>
+      </c>
+      <c r="B336" t="s">
+        <v>662</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337" t="s">
+        <v>663</v>
+      </c>
+      <c r="C337">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>339</v>
+      </c>
+      <c r="B338" t="s">
+        <v>664</v>
+      </c>
+      <c r="C338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>340</v>
+      </c>
+      <c r="B339" t="s">
+        <v>665</v>
+      </c>
+      <c r="C339">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>341</v>
+      </c>
+      <c r="B340" t="s">
+        <v>464</v>
+      </c>
+      <c r="C340">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>342</v>
+      </c>
+      <c r="B341" t="s">
+        <v>420</v>
+      </c>
+      <c r="C341">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>343</v>
+      </c>
+      <c r="B342" t="s">
+        <v>666</v>
+      </c>
+      <c r="C342">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>344</v>
+      </c>
+      <c r="B343" t="s">
+        <v>667</v>
+      </c>
+      <c r="C343">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>345</v>
+      </c>
+      <c r="B344" t="s">
+        <v>668</v>
+      </c>
+      <c r="C344">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>346</v>
+      </c>
+      <c r="B345" t="s">
+        <v>669</v>
+      </c>
+      <c r="C345">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>347</v>
+      </c>
+      <c r="B346" t="s">
+        <v>670</v>
+      </c>
+      <c r="C346">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>348</v>
+      </c>
+      <c r="B347" t="s">
+        <v>425</v>
+      </c>
+      <c r="C347">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>349</v>
+      </c>
+      <c r="B348" t="s">
+        <v>425</v>
+      </c>
+      <c r="C348">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>350</v>
+      </c>
+      <c r="B349" t="s">
+        <v>671</v>
+      </c>
+      <c r="C349">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>351</v>
+      </c>
+      <c r="B350" t="s">
+        <v>672</v>
+      </c>
+      <c r="C350">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>352</v>
+      </c>
+      <c r="B351" t="s">
+        <v>673</v>
+      </c>
+      <c r="C351">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>353</v>
+      </c>
+      <c r="B352" t="s">
+        <v>420</v>
+      </c>
+      <c r="C352">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>354</v>
+      </c>
+      <c r="B353" t="s">
+        <v>674</v>
+      </c>
+      <c r="C353">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>355</v>
+      </c>
+      <c r="B354" t="s">
+        <v>675</v>
+      </c>
+      <c r="C354">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>356</v>
+      </c>
+      <c r="B355" t="s">
+        <v>464</v>
+      </c>
+      <c r="C355">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>357</v>
+      </c>
+      <c r="B356" t="s">
+        <v>676</v>
+      </c>
+      <c r="C356">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>358</v>
+      </c>
+      <c r="B357" t="s">
+        <v>677</v>
+      </c>
+      <c r="C357">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>359</v>
+      </c>
+      <c r="B358" t="s">
+        <v>678</v>
+      </c>
+      <c r="C358">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>360</v>
+      </c>
+      <c r="B359" t="s">
+        <v>420</v>
+      </c>
+      <c r="C359">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>361</v>
+      </c>
+      <c r="B360" t="s">
+        <v>679</v>
+      </c>
+      <c r="C360">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>362</v>
+      </c>
+      <c r="B361" t="s">
+        <v>680</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>363</v>
+      </c>
+      <c r="B362" t="s">
+        <v>681</v>
+      </c>
+      <c r="C362">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>364</v>
+      </c>
+      <c r="B363" t="s">
+        <v>682</v>
+      </c>
+      <c r="C363">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
         <v>365</v>
       </c>
-      <c r="C201">
-        <v>5</v>
+      <c r="B364" t="s">
+        <v>683</v>
+      </c>
+      <c r="C364">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>366</v>
+      </c>
+      <c r="B365" t="s">
+        <v>684</v>
+      </c>
+      <c r="C365">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>367</v>
+      </c>
+      <c r="B366" t="s">
+        <v>685</v>
+      </c>
+      <c r="C366">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>368</v>
+      </c>
+      <c r="B367" t="s">
+        <v>686</v>
+      </c>
+      <c r="C367">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>369</v>
+      </c>
+      <c r="B368" t="s">
+        <v>687</v>
+      </c>
+      <c r="C368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>370</v>
+      </c>
+      <c r="B369" t="s">
+        <v>688</v>
+      </c>
+      <c r="C369">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>371</v>
+      </c>
+      <c r="B370" t="s">
+        <v>689</v>
+      </c>
+      <c r="C370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>372</v>
+      </c>
+      <c r="B371" t="s">
+        <v>420</v>
+      </c>
+      <c r="C371">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>373</v>
+      </c>
+      <c r="B372" t="s">
+        <v>690</v>
+      </c>
+      <c r="C372">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>374</v>
+      </c>
+      <c r="B373" t="s">
+        <v>691</v>
+      </c>
+      <c r="C373">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>375</v>
+      </c>
+      <c r="B374" t="s">
+        <v>692</v>
+      </c>
+      <c r="C374">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>376</v>
+      </c>
+      <c r="B375" t="s">
+        <v>693</v>
+      </c>
+      <c r="C375">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>377</v>
+      </c>
+      <c r="B376" t="s">
+        <v>435</v>
+      </c>
+      <c r="C376">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>378</v>
+      </c>
+      <c r="B377" t="s">
+        <v>694</v>
+      </c>
+      <c r="C377">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>379</v>
+      </c>
+      <c r="B378" t="s">
+        <v>695</v>
+      </c>
+      <c r="C378">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>380</v>
+      </c>
+      <c r="B379" t="s">
+        <v>696</v>
+      </c>
+      <c r="C379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>381</v>
+      </c>
+      <c r="B380" t="s">
+        <v>697</v>
+      </c>
+      <c r="C380">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>382</v>
+      </c>
+      <c r="B381" t="s">
+        <v>698</v>
+      </c>
+      <c r="C381">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>383</v>
+      </c>
+      <c r="B382" t="s">
+        <v>699</v>
+      </c>
+      <c r="C382">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>384</v>
+      </c>
+      <c r="B383" t="s">
+        <v>700</v>
+      </c>
+      <c r="C383">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>385</v>
+      </c>
+      <c r="B384" t="s">
+        <v>701</v>
+      </c>
+      <c r="C384">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>386</v>
+      </c>
+      <c r="B385" t="s">
+        <v>702</v>
+      </c>
+      <c r="C385">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>387</v>
+      </c>
+      <c r="B386" t="s">
+        <v>703</v>
+      </c>
+      <c r="C386">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>388</v>
+      </c>
+      <c r="B387" t="s">
+        <v>704</v>
+      </c>
+      <c r="C387">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>389</v>
+      </c>
+      <c r="B388" t="s">
+        <v>705</v>
+      </c>
+      <c r="C388">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>390</v>
+      </c>
+      <c r="B389" t="s">
+        <v>706</v>
+      </c>
+      <c r="C389">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>391</v>
+      </c>
+      <c r="B390" t="s">
+        <v>707</v>
+      </c>
+      <c r="C390">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>392</v>
+      </c>
+      <c r="B391" t="s">
+        <v>708</v>
+      </c>
+      <c r="C391">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>393</v>
+      </c>
+      <c r="B392" t="s">
+        <v>425</v>
+      </c>
+      <c r="C392">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>394</v>
+      </c>
+      <c r="B393" t="s">
+        <v>420</v>
+      </c>
+      <c r="C393">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>395</v>
+      </c>
+      <c r="B394" t="s">
+        <v>709</v>
+      </c>
+      <c r="C394">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>396</v>
+      </c>
+      <c r="B395" t="s">
+        <v>710</v>
+      </c>
+      <c r="C395">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>397</v>
+      </c>
+      <c r="B396" t="s">
+        <v>711</v>
+      </c>
+      <c r="C396">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>398</v>
+      </c>
+      <c r="B397" t="s">
+        <v>425</v>
+      </c>
+      <c r="C397">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>399</v>
+      </c>
+      <c r="B398" t="s">
+        <v>712</v>
+      </c>
+      <c r="C398">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>400</v>
+      </c>
+      <c r="B399" t="s">
+        <v>713</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>401</v>
+      </c>
+      <c r="B400" t="s">
+        <v>714</v>
+      </c>
+      <c r="C400">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>402</v>
+      </c>
+      <c r="B401" t="s">
+        <v>715</v>
+      </c>
+      <c r="C401">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
